--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1041"/>
+  <dimension ref="A1:V1054"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -5181,13 +5181,13 @@
         <v>0.9822979812086032</v>
       </c>
       <c r="P64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>1691</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>1721</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -5258,10 +5258,10 @@
         <v>1</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>1689</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>1719</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
@@ -8141,7 +8141,7 @@
         <v>1.703445323325468</v>
       </c>
       <c r="P104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104" t="n">
         <v>0</v>
@@ -8150,16 +8150,16 @@
         <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>0</v>
+        <v>109.008</v>
       </c>
       <c r="T104" t="n">
-        <v>0</v>
+        <v>6.992</v>
       </c>
       <c r="U104" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="V104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -8215,7 +8215,7 @@
         <v>1.385241212351048</v>
       </c>
       <c r="P105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105" t="n">
         <v>0</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="V105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -8298,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>38.516</v>
+        <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>3.484</v>
+        <v>0</v>
       </c>
       <c r="U106" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="V106" t="n">
         <v>2</v>
@@ -8585,13 +8585,13 @@
         <v>0.08985572052870339</v>
       </c>
       <c r="P110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q110" t="n">
-        <v>0</v>
+        <v>1719</v>
       </c>
       <c r="R110" t="n">
-        <v>0</v>
+        <v>1749</v>
       </c>
       <c r="S110" t="n">
         <v>0</v>
@@ -8603,7 +8603,7 @@
         <v>0</v>
       </c>
       <c r="V110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -8659,7 +8659,7 @@
         <v>0.2224178438270883</v>
       </c>
       <c r="P111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q111" t="n">
         <v>0</v>
@@ -8677,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="V111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -8733,13 +8733,13 @@
         <v>0.6278463218784509</v>
       </c>
       <c r="P112" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q112" t="n">
-        <v>1773</v>
+        <v>0</v>
       </c>
       <c r="R112" t="n">
-        <v>1743</v>
+        <v>0</v>
       </c>
       <c r="S112" t="n">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>1.3566057866949</v>
       </c>
       <c r="P113" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q113" t="n">
         <v>0</v>
@@ -8881,7 +8881,7 @@
         <v>0.3082560531586296</v>
       </c>
       <c r="P114" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q114" t="n">
         <v>0</v>
@@ -8955,7 +8955,7 @@
         <v>1.191344168355727</v>
       </c>
       <c r="P115" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q115" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>1.482559794129884</v>
       </c>
       <c r="P116" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q116" t="n">
         <v>0</v>
@@ -9103,7 +9103,7 @@
         <v>1.551552572180753</v>
       </c>
       <c r="P117" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q117" t="n">
         <v>0</v>
@@ -9177,7 +9177,7 @@
         <v>1.495151507348965</v>
       </c>
       <c r="P118" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q118" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>1.373772047298417</v>
       </c>
       <c r="P119" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q119" t="n">
         <v>0</v>
@@ -9325,7 +9325,7 @@
         <v>1.981881914707401</v>
       </c>
       <c r="P120" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q120" t="n">
         <v>0</v>
@@ -9399,7 +9399,7 @@
         <v>3.102555059675751</v>
       </c>
       <c r="P121" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q121" t="n">
         <v>0</v>
@@ -9473,7 +9473,7 @@
         <v>4.737918892708421</v>
       </c>
       <c r="P122" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q122" t="n">
         <v>0</v>
@@ -9547,7 +9547,7 @@
         <v>4.130667717228789</v>
       </c>
       <c r="P123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q123" t="n">
         <v>0</v>
@@ -9556,13 +9556,13 @@
         <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>-63.528</v>
+        <v>0</v>
       </c>
       <c r="T123" t="n">
-        <v>3.528</v>
+        <v>0</v>
       </c>
       <c r="U123" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="V123" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         <v>3.852126608347135</v>
       </c>
       <c r="P124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q124" t="n">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>2.406126815118114</v>
       </c>
       <c r="P125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q125" t="n">
         <v>0</v>
@@ -9769,7 +9769,7 @@
         <v>1.168543484561951</v>
       </c>
       <c r="P126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q126" t="n">
         <v>0</v>
@@ -9852,16 +9852,16 @@
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>0</v>
+        <v>20.976</v>
       </c>
       <c r="T127" t="n">
-        <v>0</v>
+        <v>7.024</v>
       </c>
       <c r="U127" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -9917,13 +9917,13 @@
         <v>0.8258532834431662</v>
       </c>
       <c r="P128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q128" t="n">
-        <v>0</v>
+        <v>1733</v>
       </c>
       <c r="R128" t="n">
-        <v>0</v>
+        <v>1763</v>
       </c>
       <c r="S128" t="n">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>2.138966477541089</v>
       </c>
       <c r="P129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q129" t="n">
         <v>0</v>
@@ -10065,7 +10065,7 @@
         <v>2.574060554470634</v>
       </c>
       <c r="P130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q130" t="n">
         <v>0</v>
@@ -10139,7 +10139,7 @@
         <v>3.109926381009927</v>
       </c>
       <c r="P131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q131" t="n">
         <v>0</v>
@@ -10213,7 +10213,7 @@
         <v>3.971312202697391</v>
       </c>
       <c r="P132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q132" t="n">
         <v>0</v>
@@ -10287,7 +10287,7 @@
         <v>3.89744312345465</v>
       </c>
       <c r="P133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q133" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>3.014881618203617</v>
       </c>
       <c r="P134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q134" t="n">
         <v>0</v>
@@ -10435,7 +10435,7 @@
         <v>3.714400699084536</v>
       </c>
       <c r="P135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q135" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>5.082962579620698</v>
       </c>
       <c r="P136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q136" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>7.036544055087688</v>
       </c>
       <c r="P137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q137" t="n">
         <v>0</v>
@@ -10657,7 +10657,7 @@
         <v>9.039313098973707</v>
       </c>
       <c r="P138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q138" t="n">
         <v>0</v>
@@ -10731,7 +10731,7 @@
         <v>10.18995602600398</v>
       </c>
       <c r="P139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q139" t="n">
         <v>0</v>
@@ -10805,7 +10805,7 @@
         <v>9.745460893717109</v>
       </c>
       <c r="P140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q140" t="n">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>8.154799252244857</v>
       </c>
       <c r="P141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q141" t="n">
         <v>0</v>
@@ -10953,7 +10953,7 @@
         <v>6.792935371911881</v>
       </c>
       <c r="P142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q142" t="n">
         <v>0</v>
@@ -11027,7 +11027,7 @@
         <v>10.63840747525092</v>
       </c>
       <c r="P143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q143" t="n">
         <v>0</v>
@@ -11101,7 +11101,7 @@
         <v>12.84876150281434</v>
       </c>
       <c r="P144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q144" t="n">
         <v>0</v>
@@ -11175,7 +11175,7 @@
         <v>11.76054482070867</v>
       </c>
       <c r="P145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q145" t="n">
         <v>0</v>
@@ -11249,7 +11249,7 @@
         <v>10.9087572473959</v>
       </c>
       <c r="P146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q146" t="n">
         <v>0</v>
@@ -11323,7 +11323,7 @@
         <v>8.570887828777359</v>
       </c>
       <c r="P147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q147" t="n">
         <v>0</v>
@@ -11406,16 +11406,16 @@
         <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>0</v>
+        <v>240.7</v>
       </c>
       <c r="T148" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="U148" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="V148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -12137,13 +12137,13 @@
         <v>2.172476019218038</v>
       </c>
       <c r="P158" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q158" t="n">
-        <v>0</v>
+        <v>1834</v>
       </c>
       <c r="R158" t="n">
-        <v>0</v>
+        <v>1804</v>
       </c>
       <c r="S158" t="n">
         <v>0</v>
@@ -12155,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="V158" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159">
@@ -12214,10 +12214,10 @@
         <v>-1</v>
       </c>
       <c r="Q159" t="n">
-        <v>1835</v>
+        <v>0</v>
       </c>
       <c r="R159" t="n">
-        <v>1805</v>
+        <v>0</v>
       </c>
       <c r="S159" t="n">
         <v>0</v>
@@ -12738,13 +12738,13 @@
         <v>0</v>
       </c>
       <c r="S166" t="n">
-        <v>-31.638</v>
+        <v>-67.276</v>
       </c>
       <c r="T166" t="n">
-        <v>3.638</v>
+        <v>7.276</v>
       </c>
       <c r="U166" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="V166" t="n">
         <v>2</v>
@@ -13913,7 +13913,7 @@
         <v>2.654991039030847</v>
       </c>
       <c r="P182" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q182" t="n">
         <v>0</v>
@@ -13922,16 +13922,16 @@
         <v>0</v>
       </c>
       <c r="S182" t="n">
-        <v>0</v>
+        <v>76.86</v>
       </c>
       <c r="T182" t="n">
-        <v>0</v>
+        <v>7.140000000000001</v>
       </c>
       <c r="U182" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V182" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -13987,7 +13987,7 @@
         <v>2.155047897453642</v>
       </c>
       <c r="P183" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q183" t="n">
         <v>0</v>
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="V183" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -14070,13 +14070,13 @@
         <v>0</v>
       </c>
       <c r="S184" t="n">
-        <v>48.44</v>
+        <v>0</v>
       </c>
       <c r="T184" t="n">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="U184" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="V184" t="n">
         <v>2</v>
@@ -14135,13 +14135,13 @@
         <v>1.958190499791726</v>
       </c>
       <c r="P185" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q185" t="n">
-        <v>1805</v>
+        <v>0</v>
       </c>
       <c r="R185" t="n">
-        <v>1775</v>
+        <v>0</v>
       </c>
       <c r="S185" t="n">
         <v>0</v>
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="V185" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -14212,10 +14212,10 @@
         <v>-1</v>
       </c>
       <c r="Q186" t="n">
-        <v>0</v>
+        <v>1805</v>
       </c>
       <c r="R186" t="n">
-        <v>0</v>
+        <v>1775</v>
       </c>
       <c r="S186" t="n">
         <v>0</v>
@@ -14292,10 +14292,10 @@
         <v>0</v>
       </c>
       <c r="S187" t="n">
-        <v>-15.562</v>
+        <v>-31.124</v>
       </c>
       <c r="T187" t="n">
-        <v>3.562</v>
+        <v>7.124000000000001</v>
       </c>
       <c r="U187" t="n">
         <v>-6</v>
@@ -14505,13 +14505,13 @@
         <v>0.6956129630393662</v>
       </c>
       <c r="P190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q190" t="n">
-        <v>0</v>
+        <v>1754</v>
       </c>
       <c r="R190" t="n">
-        <v>0</v>
+        <v>1784</v>
       </c>
       <c r="S190" t="n">
         <v>0</v>
@@ -14523,7 +14523,7 @@
         <v>0</v>
       </c>
       <c r="V190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -14579,7 +14579,7 @@
         <v>0.007118293071016524</v>
       </c>
       <c r="P191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q191" t="n">
         <v>0</v>
@@ -14597,7 +14597,7 @@
         <v>0</v>
       </c>
       <c r="V191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -14653,7 +14653,7 @@
         <v>0.3688556658858033</v>
       </c>
       <c r="P192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q192" t="n">
         <v>0</v>
@@ -14671,7 +14671,7 @@
         <v>0</v>
       </c>
       <c r="V192" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193">
@@ -14727,7 +14727,7 @@
         <v>0.4000623304145847</v>
       </c>
       <c r="P193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q193" t="n">
         <v>0</v>
@@ -14745,7 +14745,7 @@
         <v>0</v>
       </c>
       <c r="V193" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194">
@@ -14801,13 +14801,13 @@
         <v>0.5443530971017481</v>
       </c>
       <c r="P194" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q194" t="n">
-        <v>1808</v>
+        <v>0</v>
       </c>
       <c r="R194" t="n">
-        <v>1778</v>
+        <v>0</v>
       </c>
       <c r="S194" t="n">
         <v>0</v>
@@ -14875,7 +14875,7 @@
         <v>0.5900660548645646</v>
       </c>
       <c r="P195" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q195" t="n">
         <v>0</v>
@@ -14949,7 +14949,7 @@
         <v>1.185299422440266</v>
       </c>
       <c r="P196" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q196" t="n">
         <v>0</v>
@@ -15023,7 +15023,7 @@
         <v>0.8320752336971964</v>
       </c>
       <c r="P197" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q197" t="n">
         <v>0</v>
@@ -15097,7 +15097,7 @@
         <v>0.9261728228111679</v>
       </c>
       <c r="P198" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q198" t="n">
         <v>0</v>
@@ -15171,7 +15171,7 @@
         <v>1.677570379524241</v>
       </c>
       <c r="P199" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q199" t="n">
         <v>0</v>
@@ -15245,7 +15245,7 @@
         <v>2.894843569275054</v>
       </c>
       <c r="P200" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q200" t="n">
         <v>0</v>
@@ -15319,7 +15319,7 @@
         <v>2.928820244334929</v>
       </c>
       <c r="P201" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q201" t="n">
         <v>0</v>
@@ -15393,7 +15393,7 @@
         <v>3.072879021983681</v>
       </c>
       <c r="P202" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q202" t="n">
         <v>0</v>
@@ -15467,7 +15467,7 @@
         <v>3.722797202399079</v>
       </c>
       <c r="P203" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q203" t="n">
         <v>0</v>
@@ -15541,7 +15541,7 @@
         <v>4.609249712783367</v>
       </c>
       <c r="P204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q204" t="n">
         <v>0</v>
@@ -15550,13 +15550,13 @@
         <v>0</v>
       </c>
       <c r="S204" t="n">
-        <v>-63.604</v>
+        <v>0</v>
       </c>
       <c r="T204" t="n">
-        <v>3.604</v>
+        <v>0</v>
       </c>
       <c r="U204" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="V204" t="n">
         <v>1</v>
@@ -15615,7 +15615,7 @@
         <v>5.570996554036356</v>
       </c>
       <c r="P205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q205" t="n">
         <v>0</v>
@@ -15689,7 +15689,7 @@
         <v>5.303404130838771</v>
       </c>
       <c r="P206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q206" t="n">
         <v>0</v>
@@ -15763,7 +15763,7 @@
         <v>5.896632255710756</v>
       </c>
       <c r="P207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q207" t="n">
         <v>0</v>
@@ -15837,7 +15837,7 @@
         <v>6.77193049014295</v>
       </c>
       <c r="P208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q208" t="n">
         <v>0</v>
@@ -15911,7 +15911,7 @@
         <v>6.081370103461268</v>
       </c>
       <c r="P209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q209" t="n">
         <v>0</v>
@@ -15985,7 +15985,7 @@
         <v>5.790678371122112</v>
       </c>
       <c r="P210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q210" t="n">
         <v>0</v>
@@ -16059,7 +16059,7 @@
         <v>4.523593282505317</v>
       </c>
       <c r="P211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q211" t="n">
         <v>0</v>
@@ -16133,7 +16133,7 @@
         <v>4.012844247350586</v>
       </c>
       <c r="P212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q212" t="n">
         <v>0</v>
@@ -16207,7 +16207,7 @@
         <v>3.339536031366151</v>
       </c>
       <c r="P213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q213" t="n">
         <v>0</v>
@@ -16290,16 +16290,16 @@
         <v>0</v>
       </c>
       <c r="S214" t="n">
-        <v>0</v>
+        <v>76.78</v>
       </c>
       <c r="T214" t="n">
-        <v>0</v>
+        <v>7.22</v>
       </c>
       <c r="U214" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -16725,13 +16725,13 @@
         <v>0.4839571868874373</v>
       </c>
       <c r="P220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q220" t="n">
-        <v>0</v>
+        <v>1779</v>
       </c>
       <c r="R220" t="n">
-        <v>0</v>
+        <v>1809</v>
       </c>
       <c r="S220" t="n">
         <v>0</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="V220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -16799,7 +16799,7 @@
         <v>0.1685479174882403</v>
       </c>
       <c r="P221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q221" t="n">
         <v>0</v>
@@ -16817,7 +16817,7 @@
         <v>0</v>
       </c>
       <c r="V221" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222">
@@ -16873,7 +16873,7 @@
         <v>0.8172750703299698</v>
       </c>
       <c r="P222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q222" t="n">
         <v>0</v>
@@ -16891,7 +16891,7 @@
         <v>0</v>
       </c>
       <c r="V222" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223">
@@ -16947,7 +16947,7 @@
         <v>0.6670489676175748</v>
       </c>
       <c r="P223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q223" t="n">
         <v>0</v>
@@ -16965,7 +16965,7 @@
         <v>0</v>
       </c>
       <c r="V223" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224">
@@ -17021,7 +17021,7 @@
         <v>0.09013479234317856</v>
       </c>
       <c r="P224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q224" t="n">
         <v>0</v>
@@ -17039,7 +17039,7 @@
         <v>0</v>
       </c>
       <c r="V224" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225">
@@ -17095,7 +17095,7 @@
         <v>0.3760522244754156</v>
       </c>
       <c r="P225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q225" t="n">
         <v>0</v>
@@ -17113,7 +17113,7 @@
         <v>0</v>
       </c>
       <c r="V225" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226">
@@ -17169,13 +17169,13 @@
         <v>0.5092161435491107</v>
       </c>
       <c r="P226" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q226" t="n">
-        <v>1835</v>
+        <v>0</v>
       </c>
       <c r="R226" t="n">
-        <v>1805</v>
+        <v>0</v>
       </c>
       <c r="S226" t="n">
         <v>0</v>
@@ -17243,7 +17243,7 @@
         <v>1.005534878586332</v>
       </c>
       <c r="P227" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q227" t="n">
         <v>0</v>
@@ -17317,7 +17317,7 @@
         <v>0.1547066202074348</v>
       </c>
       <c r="P228" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q228" t="n">
         <v>0</v>
@@ -17391,7 +17391,7 @@
         <v>0.2873029265335845</v>
       </c>
       <c r="P229" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q229" t="n">
         <v>0</v>
@@ -17465,7 +17465,7 @@
         <v>0.1907007344368594</v>
       </c>
       <c r="P230" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q230" t="n">
         <v>0</v>
@@ -17539,7 +17539,7 @@
         <v>0.2779661609029063</v>
       </c>
       <c r="P231" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q231" t="n">
         <v>0</v>
@@ -17613,7 +17613,7 @@
         <v>0.4602342019509251</v>
       </c>
       <c r="P232" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q232" t="n">
         <v>0</v>
@@ -17687,7 +17687,7 @@
         <v>0.2258156060804595</v>
       </c>
       <c r="P233" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q233" t="n">
         <v>0</v>
@@ -17761,7 +17761,7 @@
         <v>1.040884252517117</v>
       </c>
       <c r="P234" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q234" t="n">
         <v>0</v>
@@ -17835,7 +17835,7 @@
         <v>1.876928711026949</v>
       </c>
       <c r="P235" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q235" t="n">
         <v>0</v>
@@ -17909,7 +17909,7 @@
         <v>1.764654251364163</v>
       </c>
       <c r="P236" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q236" t="n">
         <v>0</v>
@@ -17983,7 +17983,7 @@
         <v>1.293434591465484</v>
       </c>
       <c r="P237" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q237" t="n">
         <v>0</v>
@@ -18057,7 +18057,7 @@
         <v>1.109530862340989</v>
       </c>
       <c r="P238" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q238" t="n">
         <v>0</v>
@@ -18131,7 +18131,7 @@
         <v>0.3359148366162117</v>
       </c>
       <c r="P239" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q239" t="n">
         <v>0</v>
@@ -18205,7 +18205,7 @@
         <v>0.1966142870319345</v>
       </c>
       <c r="P240" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q240" t="n">
         <v>0</v>
@@ -18279,7 +18279,7 @@
         <v>0.1087161516809374</v>
       </c>
       <c r="P241" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q241" t="n">
         <v>0</v>
@@ -18353,7 +18353,7 @@
         <v>0.2056980080542417</v>
       </c>
       <c r="P242" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q242" t="n">
         <v>0</v>
@@ -18427,7 +18427,7 @@
         <v>0.05689964653311108</v>
       </c>
       <c r="P243" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q243" t="n">
         <v>0</v>
@@ -18501,7 +18501,7 @@
         <v>0.04517111591212597</v>
       </c>
       <c r="P244" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q244" t="n">
         <v>0</v>
@@ -18575,7 +18575,7 @@
         <v>0.4185093623607372</v>
       </c>
       <c r="P245" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q245" t="n">
         <v>0</v>
@@ -18649,7 +18649,7 @@
         <v>0.4945466315787144</v>
       </c>
       <c r="P246" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q246" t="n">
         <v>0</v>
@@ -18723,7 +18723,7 @@
         <v>0.657564134086897</v>
       </c>
       <c r="P247" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q247" t="n">
         <v>0</v>
@@ -18797,7 +18797,7 @@
         <v>1.312691006116211</v>
       </c>
       <c r="P248" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q248" t="n">
         <v>0</v>
@@ -18871,7 +18871,7 @@
         <v>1.741991057155701</v>
       </c>
       <c r="P249" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q249" t="n">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>2.173609808804258</v>
       </c>
       <c r="P250" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q250" t="n">
         <v>0</v>
@@ -19019,7 +19019,7 @@
         <v>4.853061866745747</v>
       </c>
       <c r="P251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q251" t="n">
         <v>0</v>
@@ -19028,13 +19028,13 @@
         <v>0</v>
       </c>
       <c r="S251" t="n">
-        <v>-63.672</v>
+        <v>0</v>
       </c>
       <c r="T251" t="n">
-        <v>3.672</v>
+        <v>0</v>
       </c>
       <c r="U251" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="V251" t="n">
         <v>1</v>
@@ -19093,7 +19093,7 @@
         <v>5.868941057941356</v>
       </c>
       <c r="P252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q252" t="n">
         <v>0</v>
@@ -19167,7 +19167,7 @@
         <v>5.309787825385001</v>
       </c>
       <c r="P253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q253" t="n">
         <v>0</v>
@@ -19241,7 +19241,7 @@
         <v>4.986020133361308</v>
       </c>
       <c r="P254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q254" t="n">
         <v>0</v>
@@ -19315,7 +19315,7 @@
         <v>2.689054717508043</v>
       </c>
       <c r="P255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q255" t="n">
         <v>0</v>
@@ -19389,7 +19389,7 @@
         <v>1.576221780527248</v>
       </c>
       <c r="P256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q256" t="n">
         <v>0</v>
@@ -19472,16 +19472,16 @@
         <v>0</v>
       </c>
       <c r="S257" t="n">
-        <v>0</v>
+        <v>8.748000000000001</v>
       </c>
       <c r="T257" t="n">
-        <v>0</v>
+        <v>7.252</v>
       </c>
       <c r="U257" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V257" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258">
@@ -19537,13 +19537,13 @@
         <v>1.132702941624984</v>
       </c>
       <c r="P258" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q258" t="n">
-        <v>0</v>
+        <v>1846</v>
       </c>
       <c r="R258" t="n">
-        <v>0</v>
+        <v>1816</v>
       </c>
       <c r="S258" t="n">
         <v>0</v>
@@ -19611,7 +19611,7 @@
         <v>2.172226389861862</v>
       </c>
       <c r="P259" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q259" t="n">
         <v>0</v>
@@ -19685,7 +19685,7 @@
         <v>2.304558792544867</v>
       </c>
       <c r="P260" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q260" t="n">
         <v>0</v>
@@ -19759,7 +19759,7 @@
         <v>2.085554721732706</v>
       </c>
       <c r="P261" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q261" t="n">
         <v>0</v>
@@ -19833,7 +19833,7 @@
         <v>1.536670396942327</v>
       </c>
       <c r="P262" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q262" t="n">
         <v>0</v>
@@ -19907,7 +19907,7 @@
         <v>0.6896019533025992</v>
       </c>
       <c r="P263" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q263" t="n">
         <v>0</v>
@@ -19981,7 +19981,7 @@
         <v>0.1857705626323423</v>
       </c>
       <c r="P264" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q264" t="n">
         <v>0</v>
@@ -20055,7 +20055,7 @@
         <v>0.8087855275614402</v>
       </c>
       <c r="P265" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q265" t="n">
         <v>0</v>
@@ -20129,7 +20129,7 @@
         <v>0.3420188097916252</v>
       </c>
       <c r="P266" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q266" t="n">
         <v>0</v>
@@ -20203,7 +20203,7 @@
         <v>1.127296429808439</v>
       </c>
       <c r="P267" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q267" t="n">
         <v>0</v>
@@ -20277,7 +20277,7 @@
         <v>0.1236723177082695</v>
       </c>
       <c r="P268" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q268" t="n">
         <v>0</v>
@@ -20351,7 +20351,7 @@
         <v>0.1748062979136193</v>
       </c>
       <c r="P269" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q269" t="n">
         <v>0</v>
@@ -20425,7 +20425,7 @@
         <v>0.4139573673023733</v>
       </c>
       <c r="P270" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q270" t="n">
         <v>0</v>
@@ -20499,7 +20499,7 @@
         <v>0.5584977078869997</v>
       </c>
       <c r="P271" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q271" t="n">
         <v>0</v>
@@ -20573,7 +20573,7 @@
         <v>0.6034895477278042</v>
       </c>
       <c r="P272" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q272" t="n">
         <v>0</v>
@@ -20647,7 +20647,7 @@
         <v>1.046000881718328</v>
       </c>
       <c r="P273" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q273" t="n">
         <v>0</v>
@@ -20721,7 +20721,7 @@
         <v>1.678522161972523</v>
       </c>
       <c r="P274" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q274" t="n">
         <v>0</v>
@@ -20795,7 +20795,7 @@
         <v>1.921805153506966</v>
       </c>
       <c r="P275" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q275" t="n">
         <v>0</v>
@@ -20869,7 +20869,7 @@
         <v>1.483486472919367</v>
       </c>
       <c r="P276" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q276" t="n">
         <v>0</v>
@@ -20943,7 +20943,7 @@
         <v>1.002980133634082</v>
       </c>
       <c r="P277" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q277" t="n">
         <v>0</v>
@@ -21017,7 +21017,7 @@
         <v>0.528583940470071</v>
       </c>
       <c r="P278" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q278" t="n">
         <v>0</v>
@@ -21091,7 +21091,7 @@
         <v>0.06524331279888429</v>
       </c>
       <c r="P279" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q279" t="n">
         <v>0</v>
@@ -21165,7 +21165,7 @@
         <v>0.5367100986550213</v>
       </c>
       <c r="P280" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q280" t="n">
         <v>0</v>
@@ -21239,7 +21239,7 @@
         <v>0.003770157688222753</v>
       </c>
       <c r="P281" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q281" t="n">
         <v>0</v>
@@ -21313,7 +21313,7 @@
         <v>0.8932134560325267</v>
       </c>
       <c r="P282" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q282" t="n">
         <v>0</v>
@@ -21387,7 +21387,7 @@
         <v>1.025312793454077</v>
       </c>
       <c r="P283" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q283" t="n">
         <v>0</v>
@@ -21461,7 +21461,7 @@
         <v>1.186741959716983</v>
       </c>
       <c r="P284" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q284" t="n">
         <v>0</v>
@@ -21535,7 +21535,7 @@
         <v>1.505900780119873</v>
       </c>
       <c r="P285" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q285" t="n">
         <v>0</v>
@@ -21609,7 +21609,7 @@
         <v>0.9826600894232342</v>
       </c>
       <c r="P286" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q286" t="n">
         <v>0</v>
@@ -21683,7 +21683,7 @@
         <v>0.6377009193813592</v>
       </c>
       <c r="P287" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q287" t="n">
         <v>0</v>
@@ -21757,7 +21757,7 @@
         <v>0.1078625284872032</v>
       </c>
       <c r="P288" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q288" t="n">
         <v>0</v>
@@ -21831,7 +21831,7 @@
         <v>0.4183832529395204</v>
       </c>
       <c r="P289" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q289" t="n">
         <v>0</v>
@@ -21905,7 +21905,7 @@
         <v>0.7139167842810821</v>
       </c>
       <c r="P290" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q290" t="n">
         <v>0</v>
@@ -21979,7 +21979,7 @@
         <v>0.07724170070127911</v>
       </c>
       <c r="P291" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q291" t="n">
         <v>0</v>
@@ -22053,7 +22053,7 @@
         <v>0.3525862258006782</v>
       </c>
       <c r="P292" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q292" t="n">
         <v>0</v>
@@ -22127,7 +22127,7 @@
         <v>0.1783749833821275</v>
       </c>
       <c r="P293" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q293" t="n">
         <v>0</v>
@@ -22201,7 +22201,7 @@
         <v>0.224055215797307</v>
       </c>
       <c r="P294" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q294" t="n">
         <v>0</v>
@@ -22275,7 +22275,7 @@
         <v>0.538422905248126</v>
       </c>
       <c r="P295" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q295" t="n">
         <v>0</v>
@@ -22349,7 +22349,7 @@
         <v>0.07120389311512554</v>
       </c>
       <c r="P296" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q296" t="n">
         <v>0</v>
@@ -22423,7 +22423,7 @@
         <v>0.115072074793261</v>
       </c>
       <c r="P297" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q297" t="n">
         <v>0</v>
@@ -22497,7 +22497,7 @@
         <v>1.041117017842225</v>
       </c>
       <c r="P298" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q298" t="n">
         <v>0</v>
@@ -22571,7 +22571,7 @@
         <v>0.5740435311511192</v>
       </c>
       <c r="P299" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q299" t="n">
         <v>0</v>
@@ -22645,7 +22645,7 @@
         <v>0.739031112280145</v>
       </c>
       <c r="P300" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q300" t="n">
         <v>0</v>
@@ -22719,7 +22719,7 @@
         <v>0.7842345739697976</v>
       </c>
       <c r="P301" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q301" t="n">
         <v>0</v>
@@ -22793,7 +22793,7 @@
         <v>0.3068161849539592</v>
       </c>
       <c r="P302" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q302" t="n">
         <v>0</v>
@@ -22867,7 +22867,7 @@
         <v>0.1793263857962302</v>
       </c>
       <c r="P303" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q303" t="n">
         <v>0</v>
@@ -22941,7 +22941,7 @@
         <v>0.2504333810561548</v>
       </c>
       <c r="P304" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q304" t="n">
         <v>0</v>
@@ -23015,7 +23015,7 @@
         <v>0.02898906886616714</v>
       </c>
       <c r="P305" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q305" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0.02812924949876106</v>
       </c>
       <c r="P306" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q306" t="n">
         <v>0</v>
@@ -23163,7 +23163,7 @@
         <v>0.7316203034592945</v>
       </c>
       <c r="P307" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q307" t="n">
         <v>0</v>
@@ -23237,7 +23237,7 @@
         <v>0.9501733745596539</v>
       </c>
       <c r="P308" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q308" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0.8602827239744784</v>
       </c>
       <c r="P309" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q309" t="n">
         <v>0</v>
@@ -23385,7 +23385,7 @@
         <v>0.6075979615964116</v>
       </c>
       <c r="P310" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q310" t="n">
         <v>0</v>
@@ -23459,7 +23459,7 @@
         <v>0.4329457905055278</v>
       </c>
       <c r="P311" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q311" t="n">
         <v>0</v>
@@ -23533,7 +23533,7 @@
         <v>0.9175024371522795</v>
       </c>
       <c r="P312" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q312" t="n">
         <v>0</v>
@@ -23607,7 +23607,7 @@
         <v>1.732260460344378</v>
       </c>
       <c r="P313" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q313" t="n">
         <v>0</v>
@@ -23681,7 +23681,7 @@
         <v>3.58683996024638</v>
       </c>
       <c r="P314" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q314" t="n">
         <v>0</v>
@@ -23755,7 +23755,7 @@
         <v>6.350741508056899</v>
       </c>
       <c r="P315" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q315" t="n">
         <v>0</v>
@@ -23829,7 +23829,7 @@
         <v>7.018885291222659</v>
       </c>
       <c r="P316" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q316" t="n">
         <v>0</v>
@@ -23903,7 +23903,7 @@
         <v>6.80642521590562</v>
       </c>
       <c r="P317" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q317" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>6.581057585980716</v>
       </c>
       <c r="P318" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q318" t="n">
         <v>0</v>
@@ -24051,7 +24051,7 @@
         <v>4.544126297780394</v>
       </c>
       <c r="P319" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q319" t="n">
         <v>0</v>
@@ -24125,7 +24125,7 @@
         <v>2.40009551647222</v>
       </c>
       <c r="P320" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q320" t="n">
         <v>0</v>
@@ -24208,16 +24208,16 @@
         <v>0</v>
       </c>
       <c r="S321" t="n">
-        <v>0</v>
+        <v>40.784</v>
       </c>
       <c r="T321" t="n">
-        <v>0</v>
+        <v>7.216</v>
       </c>
       <c r="U321" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V321" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322">
@@ -24291,7 +24291,7 @@
         <v>0</v>
       </c>
       <c r="V322" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323">
@@ -24365,7 +24365,7 @@
         <v>0</v>
       </c>
       <c r="V323" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324">
@@ -24439,7 +24439,7 @@
         <v>0</v>
       </c>
       <c r="V324" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -24513,7 +24513,7 @@
         <v>0</v>
       </c>
       <c r="V325" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="V326" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -24643,13 +24643,13 @@
         <v>1.587781671628136</v>
       </c>
       <c r="P327" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q327" t="n">
-        <v>0</v>
+        <v>1823</v>
       </c>
       <c r="R327" t="n">
-        <v>0</v>
+        <v>1793</v>
       </c>
       <c r="S327" t="n">
         <v>0</v>
@@ -24717,7 +24717,7 @@
         <v>1.643747792219301</v>
       </c>
       <c r="P328" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q328" t="n">
         <v>0</v>
@@ -24791,7 +24791,7 @@
         <v>2.635259749376928</v>
       </c>
       <c r="P329" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q329" t="n">
         <v>0</v>
@@ -24865,7 +24865,7 @@
         <v>3.470917195742913</v>
       </c>
       <c r="P330" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q330" t="n">
         <v>0</v>
@@ -24939,7 +24939,7 @@
         <v>4.322432336442944</v>
       </c>
       <c r="P331" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q331" t="n">
         <v>0</v>
@@ -25013,7 +25013,7 @@
         <v>4.221899241282699</v>
       </c>
       <c r="P332" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q332" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>4.820281235359971</v>
       </c>
       <c r="P333" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q333" t="n">
         <v>0</v>
@@ -25161,7 +25161,7 @@
         <v>4.096957399683333</v>
       </c>
       <c r="P334" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q334" t="n">
         <v>0</v>
@@ -25235,7 +25235,7 @@
         <v>3.757146980242396</v>
       </c>
       <c r="P335" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q335" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         <v>1.828938449623593</v>
       </c>
       <c r="P336" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q336" t="n">
         <v>0</v>
@@ -25383,7 +25383,7 @@
         <v>2.333010254157216</v>
       </c>
       <c r="P337" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q337" t="n">
         <v>0</v>
@@ -25457,7 +25457,7 @@
         <v>3.375654859408314</v>
       </c>
       <c r="P338" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q338" t="n">
         <v>0</v>
@@ -25531,7 +25531,7 @@
         <v>3.285239501096157</v>
       </c>
       <c r="P339" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q339" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>3.188331760132087</v>
       </c>
       <c r="P340" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q340" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>2.942240764446751</v>
       </c>
       <c r="P341" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q341" t="n">
         <v>0</v>
@@ -25762,16 +25762,16 @@
         <v>0</v>
       </c>
       <c r="S342" t="n">
-        <v>0</v>
+        <v>16.852</v>
       </c>
       <c r="T342" t="n">
-        <v>0</v>
+        <v>7.148000000000001</v>
       </c>
       <c r="U342" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V342" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -25975,13 +25975,13 @@
         <v>0.3623005597958127</v>
       </c>
       <c r="P345" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q345" t="n">
-        <v>0</v>
+        <v>1809</v>
       </c>
       <c r="R345" t="n">
-        <v>0</v>
+        <v>1779</v>
       </c>
       <c r="S345" t="n">
         <v>0</v>
@@ -25993,7 +25993,7 @@
         <v>0</v>
       </c>
       <c r="V345" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346">
@@ -26052,10 +26052,10 @@
         <v>-1</v>
       </c>
       <c r="Q346" t="n">
-        <v>1806</v>
+        <v>0</v>
       </c>
       <c r="R346" t="n">
-        <v>1776</v>
+        <v>0</v>
       </c>
       <c r="S346" t="n">
         <v>0</v>
@@ -26715,7 +26715,7 @@
         <v>3.858188466467936</v>
       </c>
       <c r="P355" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q355" t="n">
         <v>0</v>
@@ -26724,16 +26724,16 @@
         <v>0</v>
       </c>
       <c r="S355" t="n">
-        <v>0</v>
+        <v>96.988</v>
       </c>
       <c r="T355" t="n">
-        <v>0</v>
+        <v>7.012</v>
       </c>
       <c r="U355" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="V355" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356">
@@ -26789,7 +26789,7 @@
         <v>3.078853639560975</v>
       </c>
       <c r="P356" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q356" t="n">
         <v>0</v>
@@ -26807,7 +26807,7 @@
         <v>0</v>
       </c>
       <c r="V356" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357">
@@ -26863,7 +26863,7 @@
         <v>3.224740483092774</v>
       </c>
       <c r="P357" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q357" t="n">
         <v>0</v>
@@ -26881,7 +26881,7 @@
         <v>0</v>
       </c>
       <c r="V357" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358">
@@ -26946,13 +26946,13 @@
         <v>0</v>
       </c>
       <c r="S358" t="n">
-        <v>54.506</v>
+        <v>0</v>
       </c>
       <c r="T358" t="n">
-        <v>3.494</v>
+        <v>0</v>
       </c>
       <c r="U358" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="V358" t="n">
         <v>2</v>
@@ -27381,13 +27381,13 @@
         <v>1.322419058373498</v>
       </c>
       <c r="P364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q364" t="n">
-        <v>0</v>
+        <v>1729</v>
       </c>
       <c r="R364" t="n">
-        <v>0</v>
+        <v>1759</v>
       </c>
       <c r="S364" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="V364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -27455,7 +27455,7 @@
         <v>0.5557587872820022</v>
       </c>
       <c r="P365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q365" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="V365" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366">
@@ -27529,7 +27529,7 @@
         <v>1.635281102195904</v>
       </c>
       <c r="P366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q366" t="n">
         <v>0</v>
@@ -27547,7 +27547,7 @@
         <v>0</v>
       </c>
       <c r="V366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -27606,10 +27606,10 @@
         <v>1</v>
       </c>
       <c r="Q367" t="n">
-        <v>1743</v>
+        <v>0</v>
       </c>
       <c r="R367" t="n">
-        <v>1773</v>
+        <v>0</v>
       </c>
       <c r="S367" t="n">
         <v>0</v>
@@ -30193,7 +30193,7 @@
         <v>10.546458427772</v>
       </c>
       <c r="P402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q402" t="n">
         <v>0</v>
@@ -30202,16 +30202,16 @@
         <v>0</v>
       </c>
       <c r="S402" t="n">
-        <v>0</v>
+        <v>492.464</v>
       </c>
       <c r="T402" t="n">
-        <v>0</v>
+        <v>7.536</v>
       </c>
       <c r="U402" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="V402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403">
@@ -30267,7 +30267,7 @@
         <v>8.816777495184397</v>
       </c>
       <c r="P403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q403" t="n">
         <v>0</v>
@@ -30285,7 +30285,7 @@
         <v>0</v>
       </c>
       <c r="V403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404">
@@ -30350,13 +30350,13 @@
         <v>0</v>
       </c>
       <c r="S404" t="n">
-        <v>200.25</v>
+        <v>0</v>
       </c>
       <c r="T404" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="U404" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="V404" t="n">
         <v>2</v>
@@ -31007,13 +31007,13 @@
         <v>1.796617582977433</v>
       </c>
       <c r="P413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q413" t="n">
-        <v>0</v>
+        <v>1849</v>
       </c>
       <c r="R413" t="n">
-        <v>0</v>
+        <v>1879</v>
       </c>
       <c r="S413" t="n">
         <v>0</v>
@@ -31025,7 +31025,7 @@
         <v>0</v>
       </c>
       <c r="V413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -31081,7 +31081,7 @@
         <v>2.648596813235372</v>
       </c>
       <c r="P414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q414" t="n">
         <v>0</v>
@@ -31099,7 +31099,7 @@
         <v>0</v>
       </c>
       <c r="V414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -31155,7 +31155,7 @@
         <v>2.952791738028509</v>
       </c>
       <c r="P415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q415" t="n">
         <v>0</v>
@@ -31173,7 +31173,7 @@
         <v>0</v>
       </c>
       <c r="V415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -31229,7 +31229,7 @@
         <v>0.3640015916716948</v>
       </c>
       <c r="P416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q416" t="n">
         <v>0</v>
@@ -31247,7 +31247,7 @@
         <v>0</v>
       </c>
       <c r="V416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -31312,16 +31312,16 @@
         <v>0</v>
       </c>
       <c r="S417" t="n">
-        <v>0</v>
+        <v>-127.484</v>
       </c>
       <c r="T417" t="n">
-        <v>0</v>
+        <v>7.484</v>
       </c>
       <c r="U417" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="V417" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418">
@@ -31395,7 +31395,7 @@
         <v>0</v>
       </c>
       <c r="V418" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="419">
@@ -31469,7 +31469,7 @@
         <v>0</v>
       </c>
       <c r="V419" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="420">
@@ -31543,7 +31543,7 @@
         <v>0</v>
       </c>
       <c r="V420" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421">
@@ -31599,13 +31599,13 @@
         <v>0.4812211430073603</v>
       </c>
       <c r="P421" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q421" t="n">
-        <v>1905</v>
+        <v>0</v>
       </c>
       <c r="R421" t="n">
-        <v>1875</v>
+        <v>0</v>
       </c>
       <c r="S421" t="n">
         <v>0</v>
@@ -31673,7 +31673,7 @@
         <v>0.2970249207928646</v>
       </c>
       <c r="P422" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q422" t="n">
         <v>0</v>
@@ -31747,7 +31747,7 @@
         <v>0.6330981983244328</v>
       </c>
       <c r="P423" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q423" t="n">
         <v>0</v>
@@ -31821,7 +31821,7 @@
         <v>0.3234958528373681</v>
       </c>
       <c r="P424" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q424" t="n">
         <v>0</v>
@@ -31895,7 +31895,7 @@
         <v>0.0164991145697968</v>
       </c>
       <c r="P425" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q425" t="n">
         <v>0</v>
@@ -31969,7 +31969,7 @@
         <v>0.3524661201518029</v>
       </c>
       <c r="P426" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q426" t="n">
         <v>0</v>
@@ -32043,7 +32043,7 @@
         <v>0.3947316416613376</v>
       </c>
       <c r="P427" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q427" t="n">
         <v>0</v>
@@ -32117,7 +32117,7 @@
         <v>9.263219412246372</v>
       </c>
       <c r="P428" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q428" t="n">
         <v>0</v>
@@ -32191,7 +32191,7 @@
         <v>15.50886611061105</v>
       </c>
       <c r="P429" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q429" t="n">
         <v>0</v>
@@ -32265,7 +32265,7 @@
         <v>20.09686333331842</v>
       </c>
       <c r="P430" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q430" t="n">
         <v>0</v>
@@ -32339,7 +32339,7 @@
         <v>20.47232464671515</v>
       </c>
       <c r="P431" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q431" t="n">
         <v>0</v>
@@ -32413,7 +32413,7 @@
         <v>22.01213235422165</v>
       </c>
       <c r="P432" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q432" t="n">
         <v>0</v>
@@ -32487,7 +32487,7 @@
         <v>21.8209891429085</v>
       </c>
       <c r="P433" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q433" t="n">
         <v>0</v>
@@ -32561,7 +32561,7 @@
         <v>18.27303289777365</v>
       </c>
       <c r="P434" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q434" t="n">
         <v>0</v>
@@ -32635,7 +32635,7 @@
         <v>14.92729719450131</v>
       </c>
       <c r="P435" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q435" t="n">
         <v>0</v>
@@ -32709,7 +32709,7 @@
         <v>11.59160516274687</v>
       </c>
       <c r="P436" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q436" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>10.5847667719263</v>
       </c>
       <c r="P437" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q437" t="n">
         <v>0</v>
@@ -32801,7 +32801,7 @@
         <v>0</v>
       </c>
       <c r="V437" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438">
@@ -32857,7 +32857,7 @@
         <v>8.181959966513432</v>
       </c>
       <c r="P438" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q438" t="n">
         <v>0</v>
@@ -32875,7 +32875,7 @@
         <v>0</v>
       </c>
       <c r="V438" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439">
@@ -32940,13 +32940,13 @@
         <v>0</v>
       </c>
       <c r="S439" t="n">
-        <v>166.42</v>
+        <v>0</v>
       </c>
       <c r="T439" t="n">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="U439" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="V439" t="n">
         <v>2</v>
@@ -33819,13 +33819,13 @@
         <v>2.116518237354512</v>
       </c>
       <c r="P451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q451" t="n">
-        <v>0</v>
+        <v>1793</v>
       </c>
       <c r="R451" t="n">
-        <v>0</v>
+        <v>1823</v>
       </c>
       <c r="S451" t="n">
         <v>0</v>
@@ -33837,7 +33837,7 @@
         <v>0</v>
       </c>
       <c r="V451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -33893,7 +33893,7 @@
         <v>2.666581095453239</v>
       </c>
       <c r="P452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q452" t="n">
         <v>0</v>
@@ -33911,7 +33911,7 @@
         <v>0</v>
       </c>
       <c r="V452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -33967,7 +33967,7 @@
         <v>2.653489254691749</v>
       </c>
       <c r="P453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q453" t="n">
         <v>0</v>
@@ -33985,7 +33985,7 @@
         <v>0</v>
       </c>
       <c r="V453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -34041,7 +34041,7 @@
         <v>1.727954962477042</v>
       </c>
       <c r="P454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q454" t="n">
         <v>0</v>
@@ -34059,7 +34059,7 @@
         <v>0</v>
       </c>
       <c r="V454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -34118,10 +34118,10 @@
         <v>1</v>
       </c>
       <c r="Q455" t="n">
-        <v>1797</v>
+        <v>0</v>
       </c>
       <c r="R455" t="n">
-        <v>1827</v>
+        <v>0</v>
       </c>
       <c r="S455" t="n">
         <v>0</v>
@@ -36788,13 +36788,13 @@
         <v>0</v>
       </c>
       <c r="S491" t="n">
-        <v>78.264</v>
+        <v>172.528</v>
       </c>
       <c r="T491" t="n">
-        <v>3.736</v>
+        <v>7.472</v>
       </c>
       <c r="U491" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="V491" t="n">
         <v>2</v>
@@ -37158,10 +37158,10 @@
         <v>0</v>
       </c>
       <c r="S496" t="n">
-        <v>-63.756</v>
+        <v>-127.512</v>
       </c>
       <c r="T496" t="n">
-        <v>3.756</v>
+        <v>7.512</v>
       </c>
       <c r="U496" t="n">
         <v>-30</v>
@@ -38490,10 +38490,10 @@
         <v>0</v>
       </c>
       <c r="S514" t="n">
-        <v>118.096</v>
+        <v>236.192</v>
       </c>
       <c r="T514" t="n">
-        <v>3.904</v>
+        <v>7.808</v>
       </c>
       <c r="U514" t="n">
         <v>61</v>
@@ -39221,13 +39221,13 @@
         <v>3.860065588450652</v>
       </c>
       <c r="P524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q524" t="n">
-        <v>0</v>
+        <v>1952</v>
       </c>
       <c r="R524" t="n">
-        <v>0</v>
+        <v>1982</v>
       </c>
       <c r="S524" t="n">
         <v>0</v>
@@ -39239,7 +39239,7 @@
         <v>0</v>
       </c>
       <c r="V524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
@@ -39295,7 +39295,7 @@
         <v>2.581661463091905</v>
       </c>
       <c r="P525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q525" t="n">
         <v>0</v>
@@ -39313,7 +39313,7 @@
         <v>0</v>
       </c>
       <c r="V525" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -39369,7 +39369,7 @@
         <v>5.818794881799931</v>
       </c>
       <c r="P526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q526" t="n">
         <v>0</v>
@@ -39387,7 +39387,7 @@
         <v>0</v>
       </c>
       <c r="V526" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -39446,10 +39446,10 @@
         <v>1</v>
       </c>
       <c r="Q527" t="n">
-        <v>1986</v>
+        <v>0</v>
       </c>
       <c r="R527" t="n">
-        <v>2016</v>
+        <v>0</v>
       </c>
       <c r="S527" t="n">
         <v>0</v>
@@ -39591,7 +39591,7 @@
         <v>8.288688277848223</v>
       </c>
       <c r="P529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q529" t="n">
         <v>0</v>
@@ -39600,13 +39600,13 @@
         <v>0</v>
       </c>
       <c r="S529" t="n">
-        <v>-63.996</v>
+        <v>0</v>
       </c>
       <c r="T529" t="n">
-        <v>3.996</v>
+        <v>0</v>
       </c>
       <c r="U529" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="V529" t="n">
         <v>1</v>
@@ -39665,7 +39665,7 @@
         <v>7.457690688061803</v>
       </c>
       <c r="P530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q530" t="n">
         <v>0</v>
@@ -39739,7 +39739,7 @@
         <v>6.855468324659341</v>
       </c>
       <c r="P531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q531" t="n">
         <v>0</v>
@@ -39813,7 +39813,7 @@
         <v>6.566045924945684</v>
       </c>
       <c r="P532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q532" t="n">
         <v>0</v>
@@ -39887,7 +39887,7 @@
         <v>5.101146075104907</v>
       </c>
       <c r="P533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q533" t="n">
         <v>0</v>
@@ -39970,16 +39970,16 @@
         <v>0</v>
       </c>
       <c r="S534" t="n">
-        <v>0</v>
+        <v>71.992</v>
       </c>
       <c r="T534" t="n">
-        <v>0</v>
+        <v>8.008000000000001</v>
       </c>
       <c r="U534" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535">
@@ -40035,13 +40035,13 @@
         <v>4.436656062362545</v>
       </c>
       <c r="P535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q535" t="n">
-        <v>0</v>
+        <v>1982</v>
       </c>
       <c r="R535" t="n">
-        <v>0</v>
+        <v>2012</v>
       </c>
       <c r="S535" t="n">
         <v>0</v>
@@ -40118,16 +40118,16 @@
         <v>0</v>
       </c>
       <c r="S536" t="n">
-        <v>0</v>
+        <v>-28.028</v>
       </c>
       <c r="T536" t="n">
-        <v>0</v>
+        <v>8.028</v>
       </c>
       <c r="U536" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="V536" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537">
@@ -40562,10 +40562,10 @@
         <v>0</v>
       </c>
       <c r="S542" t="n">
-        <v>-63.968</v>
+        <v>-127.936</v>
       </c>
       <c r="T542" t="n">
-        <v>3.968</v>
+        <v>7.936</v>
       </c>
       <c r="U542" t="n">
         <v>-30</v>
@@ -42181,7 +42181,7 @@
         <v>4.354167298582979</v>
       </c>
       <c r="P564" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q564" t="n">
         <v>0</v>
@@ -42190,16 +42190,16 @@
         <v>0</v>
       </c>
       <c r="S564" t="n">
-        <v>0</v>
+        <v>48.264</v>
       </c>
       <c r="T564" t="n">
-        <v>0</v>
+        <v>7.736</v>
       </c>
       <c r="U564" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V564" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565">
@@ -42264,13 +42264,13 @@
         <v>0</v>
       </c>
       <c r="S565" t="n">
-        <v>6.114</v>
+        <v>0</v>
       </c>
       <c r="T565" t="n">
-        <v>3.886</v>
+        <v>0</v>
       </c>
       <c r="U565" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V565" t="n">
         <v>2</v>
@@ -42773,7 +42773,7 @@
         <v>2.824958163831525</v>
       </c>
       <c r="P572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q572" t="n">
         <v>0</v>
@@ -42782,16 +42782,16 @@
         <v>0</v>
       </c>
       <c r="S572" t="n">
-        <v>-27.89</v>
+        <v>0</v>
       </c>
       <c r="T572" t="n">
-        <v>3.89</v>
+        <v>0</v>
       </c>
       <c r="U572" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="V572" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
@@ -42850,10 +42850,10 @@
         <v>1</v>
       </c>
       <c r="Q573" t="n">
-        <v>1926</v>
+        <v>0</v>
       </c>
       <c r="R573" t="n">
-        <v>1956</v>
+        <v>0</v>
       </c>
       <c r="S573" t="n">
         <v>0</v>
@@ -43661,7 +43661,7 @@
         <v>16.86638546608947</v>
       </c>
       <c r="P584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q584" t="n">
         <v>0</v>
@@ -43670,16 +43670,16 @@
         <v>0</v>
       </c>
       <c r="S584" t="n">
-        <v>0</v>
+        <v>511.652</v>
       </c>
       <c r="T584" t="n">
-        <v>0</v>
+        <v>8.348000000000001</v>
       </c>
       <c r="U584" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="V584" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585">
@@ -43744,13 +43744,13 @@
         <v>0</v>
       </c>
       <c r="S585" t="n">
-        <v>255.828</v>
+        <v>0</v>
       </c>
       <c r="T585" t="n">
-        <v>4.172</v>
+        <v>0</v>
       </c>
       <c r="U585" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="V585" t="n">
         <v>2</v>
@@ -43809,13 +43809,13 @@
         <v>15.9082304621611</v>
       </c>
       <c r="P586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q586" t="n">
-        <v>2089</v>
+        <v>0</v>
       </c>
       <c r="R586" t="n">
-        <v>2119</v>
+        <v>0</v>
       </c>
       <c r="S586" t="n">
         <v>0</v>
@@ -43827,7 +43827,7 @@
         <v>0</v>
       </c>
       <c r="V586" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587">
@@ -43892,13 +43892,13 @@
         <v>0</v>
       </c>
       <c r="S587" t="n">
-        <v>-24.218</v>
+        <v>0</v>
       </c>
       <c r="T587" t="n">
-        <v>4.218</v>
+        <v>0</v>
       </c>
       <c r="U587" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="V587" t="n">
         <v>2</v>
@@ -45002,10 +45002,10 @@
         <v>0</v>
       </c>
       <c r="S602" t="n">
-        <v>-8.408000000000001</v>
+        <v>-16.816</v>
       </c>
       <c r="T602" t="n">
-        <v>4.408</v>
+        <v>8.816000000000001</v>
       </c>
       <c r="U602" t="n">
         <v>-2</v>
@@ -45807,13 +45807,13 @@
         <v>7.399286733894769</v>
       </c>
       <c r="P613" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q613" t="n">
-        <v>0</v>
+        <v>2201</v>
       </c>
       <c r="R613" t="n">
-        <v>0</v>
+        <v>2171</v>
       </c>
       <c r="S613" t="n">
         <v>0</v>
@@ -45825,7 +45825,7 @@
         <v>0</v>
       </c>
       <c r="V613" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="614">
@@ -45881,7 +45881,7 @@
         <v>7.134569630262376</v>
       </c>
       <c r="P614" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q614" t="n">
         <v>0</v>
@@ -45899,7 +45899,7 @@
         <v>0</v>
       </c>
       <c r="V614" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="615">
@@ -45955,7 +45955,7 @@
         <v>5.648689414325418</v>
       </c>
       <c r="P615" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q615" t="n">
         <v>0</v>
@@ -45973,7 +45973,7 @@
         <v>0</v>
       </c>
       <c r="V615" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="616">
@@ -46038,13 +46038,13 @@
         <v>0</v>
       </c>
       <c r="S616" t="n">
-        <v>0</v>
+        <v>-56.732</v>
       </c>
       <c r="T616" t="n">
-        <v>0</v>
+        <v>8.731999999999999</v>
       </c>
       <c r="U616" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="V616" t="n">
         <v>2</v>
@@ -47296,10 +47296,10 @@
         <v>0</v>
       </c>
       <c r="S633" t="n">
-        <v>3.738</v>
+        <v>7.475999999999999</v>
       </c>
       <c r="T633" t="n">
-        <v>4.262</v>
+        <v>8.524000000000001</v>
       </c>
       <c r="U633" t="n">
         <v>4</v>
@@ -48258,10 +48258,10 @@
         <v>0</v>
       </c>
       <c r="S646" t="n">
-        <v>-4.33</v>
+        <v>-8.66</v>
       </c>
       <c r="T646" t="n">
-        <v>4.33</v>
+        <v>8.66</v>
       </c>
       <c r="U646" t="n">
         <v>0</v>
@@ -48767,7 +48767,7 @@
         <v>1.578707440166909</v>
       </c>
       <c r="P653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q653" t="n">
         <v>0</v>
@@ -48776,16 +48776,16 @@
         <v>0</v>
       </c>
       <c r="S653" t="n">
-        <v>-18.342</v>
+        <v>0</v>
       </c>
       <c r="T653" t="n">
-        <v>4.342000000000001</v>
+        <v>0</v>
       </c>
       <c r="U653" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="V653" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
@@ -48850,13 +48850,13 @@
         <v>0</v>
       </c>
       <c r="S654" t="n">
-        <v>0</v>
+        <v>-72.648</v>
       </c>
       <c r="T654" t="n">
-        <v>0</v>
+        <v>8.648</v>
       </c>
       <c r="U654" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="V654" t="n">
         <v>2</v>
@@ -48915,13 +48915,13 @@
         <v>1.307053747703776</v>
       </c>
       <c r="P655" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q655" t="n">
-        <v>0</v>
+        <v>2193</v>
       </c>
       <c r="R655" t="n">
-        <v>0</v>
+        <v>2163</v>
       </c>
       <c r="S655" t="n">
         <v>0</v>
@@ -48933,7 +48933,7 @@
         <v>0</v>
       </c>
       <c r="V655" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="656">
@@ -48989,7 +48989,7 @@
         <v>1.266757781517754</v>
       </c>
       <c r="P656" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q656" t="n">
         <v>0</v>
@@ -49007,7 +49007,7 @@
         <v>0</v>
       </c>
       <c r="V656" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="657">
@@ -49063,7 +49063,7 @@
         <v>0.107398904112415</v>
       </c>
       <c r="P657" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q657" t="n">
         <v>0</v>
@@ -49081,7 +49081,7 @@
         <v>0</v>
       </c>
       <c r="V657" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="658">
@@ -49137,7 +49137,7 @@
         <v>1.137548295933811</v>
       </c>
       <c r="P658" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q658" t="n">
         <v>0</v>
@@ -49155,7 +49155,7 @@
         <v>0</v>
       </c>
       <c r="V658" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
@@ -49211,13 +49211,13 @@
         <v>1.444637781054098</v>
       </c>
       <c r="P659" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q659" t="n">
-        <v>2145</v>
+        <v>0</v>
       </c>
       <c r="R659" t="n">
-        <v>2175</v>
+        <v>0</v>
       </c>
       <c r="S659" t="n">
         <v>0</v>
@@ -49285,7 +49285,7 @@
         <v>1.676102483177146</v>
       </c>
       <c r="P660" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q660" t="n">
         <v>0</v>
@@ -49359,7 +49359,7 @@
         <v>1.246228533839712</v>
       </c>
       <c r="P661" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q661" t="n">
         <v>0</v>
@@ -49433,7 +49433,7 @@
         <v>0.3301622260896693</v>
       </c>
       <c r="P662" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q662" t="n">
         <v>0</v>
@@ -49507,7 +49507,7 @@
         <v>0.4925504403249761</v>
       </c>
       <c r="P663" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q663" t="n">
         <v>0</v>
@@ -49581,7 +49581,7 @@
         <v>2.881148231682801</v>
       </c>
       <c r="P664" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q664" t="n">
         <v>0</v>
@@ -49655,7 +49655,7 @@
         <v>4.766980467473331</v>
       </c>
       <c r="P665" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q665" t="n">
         <v>0</v>
@@ -49664,13 +49664,13 @@
         <v>0</v>
       </c>
       <c r="S665" t="n">
-        <v>-64.298</v>
+        <v>0</v>
       </c>
       <c r="T665" t="n">
-        <v>4.298</v>
+        <v>0</v>
       </c>
       <c r="U665" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="V665" t="n">
         <v>-1</v>
@@ -49729,7 +49729,7 @@
         <v>5.506708325330237</v>
       </c>
       <c r="P666" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q666" t="n">
         <v>0</v>
@@ -49803,7 +49803,7 @@
         <v>5.273426046262102</v>
       </c>
       <c r="P667" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q667" t="n">
         <v>0</v>
@@ -49877,7 +49877,7 @@
         <v>4.826579588208915</v>
       </c>
       <c r="P668" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q668" t="n">
         <v>0</v>
@@ -49951,7 +49951,7 @@
         <v>3.229719120894515</v>
       </c>
       <c r="P669" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q669" t="n">
         <v>0</v>
@@ -50025,7 +50025,7 @@
         <v>3.072054676850712</v>
       </c>
       <c r="P670" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q670" t="n">
         <v>0</v>
@@ -50099,7 +50099,7 @@
         <v>2.648355605744655</v>
       </c>
       <c r="P671" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q671" t="n">
         <v>0</v>
@@ -50173,7 +50173,7 @@
         <v>3.014316378732474</v>
       </c>
       <c r="P672" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q672" t="n">
         <v>0</v>
@@ -50247,7 +50247,7 @@
         <v>2.879730353166451</v>
       </c>
       <c r="P673" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q673" t="n">
         <v>0</v>
@@ -50321,7 +50321,7 @@
         <v>3.086336135998863</v>
       </c>
       <c r="P674" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q674" t="n">
         <v>0</v>
@@ -50395,7 +50395,7 @@
         <v>5.739252251725702</v>
       </c>
       <c r="P675" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q675" t="n">
         <v>0</v>
@@ -50469,7 +50469,7 @@
         <v>7.899069996562957</v>
       </c>
       <c r="P676" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q676" t="n">
         <v>0</v>
@@ -50543,7 +50543,7 @@
         <v>7.840845130318939</v>
       </c>
       <c r="P677" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q677" t="n">
         <v>0</v>
@@ -50617,7 +50617,7 @@
         <v>7.78842883174184</v>
       </c>
       <c r="P678" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q678" t="n">
         <v>0</v>
@@ -50691,7 +50691,7 @@
         <v>13.95447880029133</v>
       </c>
       <c r="P679" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q679" t="n">
         <v>0</v>
@@ -50765,7 +50765,7 @@
         <v>20.56296188614897</v>
       </c>
       <c r="P680" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q680" t="n">
         <v>0</v>
@@ -50839,7 +50839,7 @@
         <v>21.2546822429108</v>
       </c>
       <c r="P681" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q681" t="n">
         <v>0</v>
@@ -50913,7 +50913,7 @@
         <v>20.64685199854375</v>
       </c>
       <c r="P682" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q682" t="n">
         <v>0</v>
@@ -50987,7 +50987,7 @@
         <v>17.85186265321954</v>
       </c>
       <c r="P683" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q683" t="n">
         <v>0</v>
@@ -51061,7 +51061,7 @@
         <v>15.39690709193837</v>
       </c>
       <c r="P684" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q684" t="n">
         <v>0</v>
@@ -51135,7 +51135,7 @@
         <v>12.82166423475837</v>
       </c>
       <c r="P685" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q685" t="n">
         <v>0</v>
@@ -51218,16 +51218,16 @@
         <v>0</v>
       </c>
       <c r="S686" t="n">
-        <v>0</v>
+        <v>279.636</v>
       </c>
       <c r="T686" t="n">
-        <v>0</v>
+        <v>8.364000000000001</v>
       </c>
       <c r="U686" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="V686" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687">
@@ -51949,13 +51949,13 @@
         <v>2.412997550032287</v>
       </c>
       <c r="P696" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q696" t="n">
-        <v>0</v>
+        <v>2102</v>
       </c>
       <c r="R696" t="n">
-        <v>0</v>
+        <v>2072</v>
       </c>
       <c r="S696" t="n">
         <v>0</v>
@@ -51967,7 +51967,7 @@
         <v>0</v>
       </c>
       <c r="V696" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="697">
@@ -52023,7 +52023,7 @@
         <v>4.51464787583609</v>
       </c>
       <c r="P697" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q697" t="n">
         <v>0</v>
@@ -52041,7 +52041,7 @@
         <v>0</v>
       </c>
       <c r="V697" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="698">
@@ -52097,7 +52097,7 @@
         <v>4.629811818647795</v>
       </c>
       <c r="P698" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q698" t="n">
         <v>0</v>
@@ -52115,7 +52115,7 @@
         <v>0</v>
       </c>
       <c r="V698" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="699">
@@ -52171,7 +52171,7 @@
         <v>4.563549010566476</v>
       </c>
       <c r="P699" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q699" t="n">
         <v>0</v>
@@ -52189,7 +52189,7 @@
         <v>0</v>
       </c>
       <c r="V699" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="700">
@@ -52245,7 +52245,7 @@
         <v>3.190220872184909</v>
       </c>
       <c r="P700" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q700" t="n">
         <v>0</v>
@@ -52263,7 +52263,7 @@
         <v>0</v>
       </c>
       <c r="V700" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="701">
@@ -52328,13 +52328,13 @@
         <v>0</v>
       </c>
       <c r="S701" t="n">
-        <v>0</v>
+        <v>-68.348</v>
       </c>
       <c r="T701" t="n">
-        <v>0</v>
+        <v>8.348000000000001</v>
       </c>
       <c r="U701" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="V701" t="n">
         <v>2</v>
@@ -52393,13 +52393,13 @@
         <v>1.924078155447205</v>
       </c>
       <c r="P702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q702" t="n">
-        <v>0</v>
+        <v>2055</v>
       </c>
       <c r="R702" t="n">
-        <v>0</v>
+        <v>2085</v>
       </c>
       <c r="S702" t="n">
         <v>0</v>
@@ -52411,7 +52411,7 @@
         <v>0</v>
       </c>
       <c r="V702" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
@@ -52470,10 +52470,10 @@
         <v>1</v>
       </c>
       <c r="Q703" t="n">
-        <v>2079</v>
+        <v>0</v>
       </c>
       <c r="R703" t="n">
-        <v>2109</v>
+        <v>0</v>
       </c>
       <c r="S703" t="n">
         <v>0</v>
@@ -53651,7 +53651,7 @@
         <v>8.075806719504726</v>
       </c>
       <c r="P719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q719" t="n">
         <v>0</v>
@@ -53660,16 +53660,16 @@
         <v>0</v>
       </c>
       <c r="S719" t="n">
-        <v>0</v>
+        <v>271.38</v>
       </c>
       <c r="T719" t="n">
-        <v>0</v>
+        <v>8.620000000000001</v>
       </c>
       <c r="U719" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="V719" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720">
@@ -53734,13 +53734,13 @@
         <v>0</v>
       </c>
       <c r="S720" t="n">
-        <v>79.69799999999999</v>
+        <v>0</v>
       </c>
       <c r="T720" t="n">
-        <v>4.302</v>
+        <v>0</v>
       </c>
       <c r="U720" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="V720" t="n">
         <v>2</v>
@@ -54391,13 +54391,13 @@
         <v>3.124153017941353</v>
       </c>
       <c r="P729" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q729" t="n">
-        <v>0</v>
+        <v>2172</v>
       </c>
       <c r="R729" t="n">
-        <v>0</v>
+        <v>2142</v>
       </c>
       <c r="S729" t="n">
         <v>0</v>
@@ -54409,7 +54409,7 @@
         <v>0</v>
       </c>
       <c r="V729" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="730">
@@ -54465,7 +54465,7 @@
         <v>5.22408712403103</v>
       </c>
       <c r="P730" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q730" t="n">
         <v>0</v>
@@ -54483,7 +54483,7 @@
         <v>0</v>
       </c>
       <c r="V730" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="731">
@@ -54539,7 +54539,7 @@
         <v>5.901379234987417</v>
       </c>
       <c r="P731" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q731" t="n">
         <v>0</v>
@@ -54557,7 +54557,7 @@
         <v>0</v>
       </c>
       <c r="V731" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="732">
@@ -54616,10 +54616,10 @@
         <v>-1</v>
       </c>
       <c r="Q732" t="n">
-        <v>2159</v>
+        <v>0</v>
       </c>
       <c r="R732" t="n">
-        <v>2129</v>
+        <v>0</v>
       </c>
       <c r="S732" t="n">
         <v>0</v>
@@ -55501,7 +55501,7 @@
         <v>6.571368584116044</v>
       </c>
       <c r="P744" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q744" t="n">
         <v>0</v>
@@ -55510,16 +55510,16 @@
         <v>0</v>
       </c>
       <c r="S744" t="n">
-        <v>0</v>
+        <v>223.664</v>
       </c>
       <c r="T744" t="n">
-        <v>0</v>
+        <v>8.336</v>
       </c>
       <c r="U744" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="V744" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745">
@@ -55584,13 +55584,13 @@
         <v>0</v>
       </c>
       <c r="S745" t="n">
-        <v>83.83</v>
+        <v>0</v>
       </c>
       <c r="T745" t="n">
-        <v>4.17</v>
+        <v>0</v>
       </c>
       <c r="U745" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="V745" t="n">
         <v>2</v>
@@ -56093,13 +56093,13 @@
         <v>2.623232444660061</v>
       </c>
       <c r="P752" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q752" t="n">
-        <v>0</v>
+        <v>2104</v>
       </c>
       <c r="R752" t="n">
-        <v>0</v>
+        <v>2074</v>
       </c>
       <c r="S752" t="n">
         <v>0</v>
@@ -56111,7 +56111,7 @@
         <v>0</v>
       </c>
       <c r="V752" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="753">
@@ -56176,13 +56176,13 @@
         <v>0</v>
       </c>
       <c r="S753" t="n">
-        <v>0</v>
+        <v>-60.348</v>
       </c>
       <c r="T753" t="n">
-        <v>0</v>
+        <v>8.348000000000001</v>
       </c>
       <c r="U753" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="V753" t="n">
         <v>2</v>
@@ -56315,13 +56315,13 @@
         <v>0.454298958030904</v>
       </c>
       <c r="P755" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q755" t="n">
-        <v>0</v>
+        <v>2111</v>
       </c>
       <c r="R755" t="n">
-        <v>0</v>
+        <v>2081</v>
       </c>
       <c r="S755" t="n">
         <v>0</v>
@@ -56333,7 +56333,7 @@
         <v>0</v>
       </c>
       <c r="V755" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="756">
@@ -56398,16 +56398,16 @@
         <v>0</v>
       </c>
       <c r="S756" t="n">
-        <v>0</v>
+        <v>-128.424</v>
       </c>
       <c r="T756" t="n">
-        <v>0</v>
+        <v>8.423999999999999</v>
       </c>
       <c r="U756" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="V756" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757">
@@ -56463,13 +56463,13 @@
         <v>4.050549830439195</v>
       </c>
       <c r="P757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q757" t="n">
-        <v>2073</v>
+        <v>0</v>
       </c>
       <c r="R757" t="n">
-        <v>2103</v>
+        <v>0</v>
       </c>
       <c r="S757" t="n">
         <v>0</v>
@@ -56537,7 +56537,7 @@
         <v>4.450548179348061</v>
       </c>
       <c r="P758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q758" t="n">
         <v>0</v>
@@ -56611,7 +56611,7 @@
         <v>4.853544358792533</v>
       </c>
       <c r="P759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q759" t="n">
         <v>0</v>
@@ -56685,7 +56685,7 @@
         <v>5.082236556138469</v>
       </c>
       <c r="P760" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q760" t="n">
         <v>0</v>
@@ -56759,7 +56759,7 @@
         <v>4.595933114924719</v>
       </c>
       <c r="P761" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q761" t="n">
         <v>0</v>
@@ -56833,7 +56833,7 @@
         <v>1.779408018813228</v>
       </c>
       <c r="P762" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q762" t="n">
         <v>0</v>
@@ -56916,13 +56916,13 @@
         <v>0</v>
       </c>
       <c r="S763" t="n">
-        <v>-32.178</v>
+        <v>0</v>
       </c>
       <c r="T763" t="n">
-        <v>4.178</v>
+        <v>0</v>
       </c>
       <c r="U763" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="V763" t="n">
         <v>2</v>
@@ -58461,7 +58461,7 @@
         <v>3.605883725364038</v>
       </c>
       <c r="P784" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q784" t="n">
         <v>0</v>
@@ -58470,16 +58470,16 @@
         <v>0</v>
       </c>
       <c r="S784" t="n">
-        <v>0</v>
+        <v>111.748</v>
       </c>
       <c r="T784" t="n">
-        <v>0</v>
+        <v>8.252000000000001</v>
       </c>
       <c r="U784" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V784" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785">
@@ -58544,13 +58544,13 @@
         <v>0</v>
       </c>
       <c r="S785" t="n">
-        <v>39.858</v>
+        <v>0</v>
       </c>
       <c r="T785" t="n">
-        <v>4.142</v>
+        <v>0</v>
       </c>
       <c r="U785" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="V785" t="n">
         <v>2</v>
@@ -58979,13 +58979,13 @@
         <v>0.5437401368035353</v>
       </c>
       <c r="P791" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q791" t="n">
-        <v>0</v>
+        <v>2098</v>
       </c>
       <c r="R791" t="n">
-        <v>0</v>
+        <v>2068</v>
       </c>
       <c r="S791" t="n">
         <v>0</v>
@@ -58997,7 +58997,7 @@
         <v>0</v>
       </c>
       <c r="V791" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="792">
@@ -59053,7 +59053,7 @@
         <v>0.04246965488619026</v>
       </c>
       <c r="P792" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q792" t="n">
         <v>0</v>
@@ -59071,7 +59071,7 @@
         <v>0</v>
       </c>
       <c r="V792" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="793">
@@ -59127,7 +59127,7 @@
         <v>0.8395851325162766</v>
       </c>
       <c r="P793" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q793" t="n">
         <v>0</v>
@@ -59145,7 +59145,7 @@
         <v>0</v>
       </c>
       <c r="V793" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794">
@@ -59201,13 +59201,13 @@
         <v>1.572852281250107</v>
       </c>
       <c r="P794" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q794" t="n">
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="R794" t="n">
-        <v>2078</v>
+        <v>0</v>
       </c>
       <c r="S794" t="n">
         <v>0</v>
@@ -59275,7 +59275,7 @@
         <v>1.422946345332093</v>
       </c>
       <c r="P795" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q795" t="n">
         <v>0</v>
@@ -59349,7 +59349,7 @@
         <v>1.103425147235612</v>
       </c>
       <c r="P796" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q796" t="n">
         <v>0</v>
@@ -59423,7 +59423,7 @@
         <v>1.013781757532342</v>
       </c>
       <c r="P797" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q797" t="n">
         <v>0</v>
@@ -59497,7 +59497,7 @@
         <v>3.024656165722718</v>
       </c>
       <c r="P798" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q798" t="n">
         <v>0</v>
@@ -59571,7 +59571,7 @@
         <v>2.423032741964562</v>
       </c>
       <c r="P799" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q799" t="n">
         <v>0</v>
@@ -59645,7 +59645,7 @@
         <v>1.948024041613735</v>
       </c>
       <c r="P800" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q800" t="n">
         <v>0</v>
@@ -59719,7 +59719,7 @@
         <v>2.217012464129766</v>
       </c>
       <c r="P801" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q801" t="n">
         <v>0</v>
@@ -59793,7 +59793,7 @@
         <v>8.899940711860836</v>
       </c>
       <c r="P802" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q802" t="n">
         <v>0</v>
@@ -59802,13 +59802,13 @@
         <v>0</v>
       </c>
       <c r="S802" t="n">
-        <v>-64.048</v>
+        <v>0</v>
       </c>
       <c r="T802" t="n">
-        <v>4.048</v>
+        <v>0</v>
       </c>
       <c r="U802" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="V802" t="n">
         <v>-1</v>
@@ -59867,7 +59867,7 @@
         <v>12.76335971293474</v>
       </c>
       <c r="P803" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q803" t="n">
         <v>0</v>
@@ -59941,7 +59941,7 @@
         <v>13.94562706425177</v>
       </c>
       <c r="P804" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q804" t="n">
         <v>0</v>
@@ -60015,7 +60015,7 @@
         <v>15.26046216107579</v>
       </c>
       <c r="P805" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q805" t="n">
         <v>0</v>
@@ -60089,7 +60089,7 @@
         <v>14.14367753746001</v>
       </c>
       <c r="P806" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q806" t="n">
         <v>0</v>
@@ -60163,7 +60163,7 @@
         <v>12.52581455867198</v>
       </c>
       <c r="P807" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q807" t="n">
         <v>0</v>
@@ -60237,7 +60237,7 @@
         <v>9.975112657595446</v>
       </c>
       <c r="P808" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q808" t="n">
         <v>0</v>
@@ -60311,7 +60311,7 @@
         <v>8.282298732305435</v>
       </c>
       <c r="P809" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q809" t="n">
         <v>0</v>
@@ -60394,16 +60394,16 @@
         <v>0</v>
       </c>
       <c r="S810" t="n">
-        <v>0</v>
+        <v>183.92</v>
       </c>
       <c r="T810" t="n">
-        <v>0</v>
+        <v>8.08</v>
       </c>
       <c r="U810" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="V810" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811">
@@ -60477,7 +60477,7 @@
         <v>0</v>
       </c>
       <c r="V811" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812">
@@ -60551,7 +60551,7 @@
         <v>0</v>
       </c>
       <c r="V812" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813">
@@ -60625,7 +60625,7 @@
         <v>0</v>
       </c>
       <c r="V813" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814">
@@ -60699,7 +60699,7 @@
         <v>0</v>
       </c>
       <c r="V814" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815">
@@ -60773,7 +60773,7 @@
         <v>0</v>
       </c>
       <c r="V815" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816">
@@ -61125,13 +61125,13 @@
         <v>4.338219893998257</v>
       </c>
       <c r="P820" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q820" t="n">
-        <v>0</v>
+        <v>2009</v>
       </c>
       <c r="R820" t="n">
-        <v>0</v>
+        <v>2039</v>
       </c>
       <c r="S820" t="n">
         <v>0</v>
@@ -61143,7 +61143,7 @@
         <v>0</v>
       </c>
       <c r="V820" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821">
@@ -61202,10 +61202,10 @@
         <v>1</v>
       </c>
       <c r="Q821" t="n">
-        <v>2014</v>
+        <v>0</v>
       </c>
       <c r="R821" t="n">
-        <v>2044</v>
+        <v>0</v>
       </c>
       <c r="S821" t="n">
         <v>0</v>
@@ -61273,7 +61273,7 @@
         <v>5.240735430089217</v>
       </c>
       <c r="P822" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q822" t="n">
         <v>0</v>
@@ -61282,16 +61282,16 @@
         <v>0</v>
       </c>
       <c r="S822" t="n">
-        <v>-20.072</v>
+        <v>0</v>
       </c>
       <c r="T822" t="n">
-        <v>4.072</v>
+        <v>0</v>
       </c>
       <c r="U822" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="V822" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823">
@@ -61350,10 +61350,10 @@
         <v>1</v>
       </c>
       <c r="Q823" t="n">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="R823" t="n">
-        <v>2045</v>
+        <v>0</v>
       </c>
       <c r="S823" t="n">
         <v>0</v>
@@ -61939,7 +61939,7 @@
         <v>4.894773356191308</v>
       </c>
       <c r="P831" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q831" t="n">
         <v>0</v>
@@ -61948,16 +61948,16 @@
         <v>0</v>
       </c>
       <c r="S831" t="n">
-        <v>0</v>
+        <v>87.748</v>
       </c>
       <c r="T831" t="n">
-        <v>0</v>
+        <v>8.252000000000001</v>
       </c>
       <c r="U831" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V831" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832">
@@ -62022,13 +62022,13 @@
         <v>0</v>
       </c>
       <c r="S832" t="n">
-        <v>23.882</v>
+        <v>0</v>
       </c>
       <c r="T832" t="n">
-        <v>4.118</v>
+        <v>0</v>
       </c>
       <c r="U832" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="V832" t="n">
         <v>2</v>
@@ -62161,13 +62161,13 @@
         <v>3.908491961097297</v>
       </c>
       <c r="P834" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q834" t="n">
-        <v>2042</v>
+        <v>0</v>
       </c>
       <c r="R834" t="n">
-        <v>2072</v>
+        <v>0</v>
       </c>
       <c r="S834" t="n">
         <v>0</v>
@@ -62179,7 +62179,7 @@
         <v>0</v>
       </c>
       <c r="V834" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835">
@@ -62238,10 +62238,10 @@
         <v>1</v>
       </c>
       <c r="Q835" t="n">
-        <v>0</v>
+        <v>2046</v>
       </c>
       <c r="R835" t="n">
-        <v>0</v>
+        <v>2076</v>
       </c>
       <c r="S835" t="n">
         <v>0</v>
@@ -62836,13 +62836,13 @@
         <v>0</v>
       </c>
       <c r="S843" t="n">
-        <v>57.794</v>
+        <v>99.58799999999999</v>
       </c>
       <c r="T843" t="n">
-        <v>4.206</v>
+        <v>8.412000000000001</v>
       </c>
       <c r="U843" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V843" t="n">
         <v>2</v>
@@ -64455,7 +64455,7 @@
         <v>6.239735577233887</v>
       </c>
       <c r="P865" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q865" t="n">
         <v>0</v>
@@ -64464,16 +64464,16 @@
         <v>0</v>
       </c>
       <c r="S865" t="n">
-        <v>0</v>
+        <v>183.852</v>
       </c>
       <c r="T865" t="n">
-        <v>0</v>
+        <v>8.148</v>
       </c>
       <c r="U865" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="V865" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866">
@@ -64529,7 +64529,7 @@
         <v>5.869486986668562</v>
       </c>
       <c r="P866" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q866" t="n">
         <v>0</v>
@@ -64547,7 +64547,7 @@
         <v>0</v>
       </c>
       <c r="V866" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867">
@@ -64612,13 +64612,13 @@
         <v>0</v>
       </c>
       <c r="S867" t="n">
-        <v>97.932</v>
+        <v>0</v>
       </c>
       <c r="T867" t="n">
-        <v>4.068000000000001</v>
+        <v>0</v>
       </c>
       <c r="U867" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="V867" t="n">
         <v>2</v>
@@ -65269,13 +65269,13 @@
         <v>0.8080736249451093</v>
       </c>
       <c r="P876" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q876" t="n">
-        <v>0</v>
+        <v>2068</v>
       </c>
       <c r="R876" t="n">
-        <v>0</v>
+        <v>2038</v>
       </c>
       <c r="S876" t="n">
         <v>0</v>
@@ -65287,7 +65287,7 @@
         <v>0</v>
       </c>
       <c r="V876" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="877">
@@ -65352,13 +65352,13 @@
         <v>0</v>
       </c>
       <c r="S877" t="n">
-        <v>0</v>
+        <v>-32.176</v>
       </c>
       <c r="T877" t="n">
-        <v>0</v>
+        <v>8.176</v>
       </c>
       <c r="U877" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="V877" t="n">
         <v>2</v>
@@ -65417,13 +65417,13 @@
         <v>0.3129437408206286</v>
       </c>
       <c r="P878" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q878" t="n">
-        <v>0</v>
+        <v>2014</v>
       </c>
       <c r="R878" t="n">
-        <v>0</v>
+        <v>2044</v>
       </c>
       <c r="S878" t="n">
         <v>0</v>
@@ -65435,7 +65435,7 @@
         <v>0</v>
       </c>
       <c r="V878" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879">
@@ -65491,7 +65491,7 @@
         <v>2.026781196131878</v>
       </c>
       <c r="P879" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q879" t="n">
         <v>0</v>
@@ -65509,7 +65509,7 @@
         <v>0</v>
       </c>
       <c r="V879" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -65568,10 +65568,10 @@
         <v>1</v>
       </c>
       <c r="Q880" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="R880" t="n">
-        <v>2052</v>
+        <v>0</v>
       </c>
       <c r="S880" t="n">
         <v>0</v>
@@ -66527,7 +66527,7 @@
         <v>5.389567117039405</v>
       </c>
       <c r="P893" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q893" t="n">
         <v>0</v>
@@ -66536,13 +66536,13 @@
         <v>0</v>
       </c>
       <c r="S893" t="n">
-        <v>-64.038</v>
+        <v>0</v>
       </c>
       <c r="T893" t="n">
-        <v>4.038</v>
+        <v>0</v>
       </c>
       <c r="U893" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="V893" t="n">
         <v>-1</v>
@@ -66610,13 +66610,13 @@
         <v>0</v>
       </c>
       <c r="S894" t="n">
-        <v>0</v>
+        <v>-128.06</v>
       </c>
       <c r="T894" t="n">
-        <v>0</v>
+        <v>8.06</v>
       </c>
       <c r="U894" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="V894" t="n">
         <v>-1</v>
@@ -67285,7 +67285,7 @@
         <v>0</v>
       </c>
       <c r="V903" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904">
@@ -67359,7 +67359,7 @@
         <v>0</v>
       </c>
       <c r="V904" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905">
@@ -67433,7 +67433,7 @@
         <v>0</v>
       </c>
       <c r="V905" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906">
@@ -67711,13 +67711,13 @@
         <v>1.61715918658183</v>
       </c>
       <c r="P909" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q909" t="n">
-        <v>0</v>
+        <v>2043</v>
       </c>
       <c r="R909" t="n">
-        <v>0</v>
+        <v>2013</v>
       </c>
       <c r="S909" t="n">
         <v>0</v>
@@ -67729,7 +67729,7 @@
         <v>0</v>
       </c>
       <c r="V909" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="910">
@@ -67785,7 +67785,7 @@
         <v>0.9395276786353861</v>
       </c>
       <c r="P910" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q910" t="n">
         <v>0</v>
@@ -67803,7 +67803,7 @@
         <v>0</v>
       </c>
       <c r="V910" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="911">
@@ -67862,10 +67862,10 @@
         <v>-1</v>
       </c>
       <c r="Q911" t="n">
-        <v>2026</v>
+        <v>0</v>
       </c>
       <c r="R911" t="n">
-        <v>1996</v>
+        <v>0</v>
       </c>
       <c r="S911" t="n">
         <v>0</v>
@@ -69043,7 +69043,7 @@
         <v>5.011927628384001</v>
       </c>
       <c r="P927" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q927" t="n">
         <v>0</v>
@@ -69052,16 +69052,16 @@
         <v>0</v>
       </c>
       <c r="S927" t="n">
-        <v>0</v>
+        <v>192.148</v>
       </c>
       <c r="T927" t="n">
-        <v>0</v>
+        <v>7.852</v>
       </c>
       <c r="U927" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V927" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928">
@@ -69126,13 +69126,13 @@
         <v>0</v>
       </c>
       <c r="S928" t="n">
-        <v>42.054</v>
+        <v>0</v>
       </c>
       <c r="T928" t="n">
-        <v>3.946</v>
+        <v>0</v>
       </c>
       <c r="U928" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V928" t="n">
         <v>2</v>
@@ -69561,13 +69561,13 @@
         <v>3.022606515334701</v>
       </c>
       <c r="P934" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q934" t="n">
-        <v>0</v>
+        <v>1963</v>
       </c>
       <c r="R934" t="n">
-        <v>0</v>
+        <v>1993</v>
       </c>
       <c r="S934" t="n">
         <v>0</v>
@@ -69579,7 +69579,7 @@
         <v>0</v>
       </c>
       <c r="V934" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935">
@@ -69638,10 +69638,10 @@
         <v>1</v>
       </c>
       <c r="Q935" t="n">
-        <v>1958</v>
+        <v>0</v>
       </c>
       <c r="R935" t="n">
-        <v>1988</v>
+        <v>0</v>
       </c>
       <c r="S935" t="n">
         <v>0</v>
@@ -69783,7 +69783,7 @@
         <v>2.930847287826055</v>
       </c>
       <c r="P937" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q937" t="n">
         <v>0</v>
@@ -69792,16 +69792,16 @@
         <v>0</v>
       </c>
       <c r="S937" t="n">
-        <v>-23.956</v>
+        <v>0</v>
       </c>
       <c r="T937" t="n">
-        <v>3.956</v>
+        <v>0</v>
       </c>
       <c r="U937" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="V937" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938">
@@ -69857,7 +69857,7 @@
         <v>1.781421224683527</v>
       </c>
       <c r="P938" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q938" t="n">
         <v>0</v>
@@ -69875,7 +69875,7 @@
         <v>0</v>
       </c>
       <c r="V938" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939">
@@ -69931,7 +69931,7 @@
         <v>1.501042085715881</v>
       </c>
       <c r="P939" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q939" t="n">
         <v>0</v>
@@ -69949,7 +69949,7 @@
         <v>0</v>
       </c>
       <c r="V939" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940">
@@ -70005,7 +70005,7 @@
         <v>2.014711519871753</v>
       </c>
       <c r="P940" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q940" t="n">
         <v>0</v>
@@ -70023,7 +70023,7 @@
         <v>0</v>
       </c>
       <c r="V940" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941">
@@ -70082,10 +70082,10 @@
         <v>1</v>
       </c>
       <c r="Q941" t="n">
-        <v>1955</v>
+        <v>0</v>
       </c>
       <c r="R941" t="n">
-        <v>1985</v>
+        <v>0</v>
       </c>
       <c r="S941" t="n">
         <v>0</v>
@@ -70384,13 +70384,13 @@
         <v>0</v>
       </c>
       <c r="S945" t="n">
-        <v>-23.95</v>
+        <v>-79.90000000000001</v>
       </c>
       <c r="T945" t="n">
-        <v>3.95</v>
+        <v>7.9</v>
       </c>
       <c r="U945" t="n">
-        <v>-10</v>
+        <v>-18</v>
       </c>
       <c r="V945" t="n">
         <v>2</v>
@@ -71716,10 +71716,10 @@
         <v>0</v>
       </c>
       <c r="S963" t="n">
-        <v>-63.924</v>
+        <v>-127.848</v>
       </c>
       <c r="T963" t="n">
-        <v>3.924</v>
+        <v>7.848</v>
       </c>
       <c r="U963" t="n">
         <v>-30</v>
@@ -72317,7 +72317,7 @@
         <v>0</v>
       </c>
       <c r="V971" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972">
@@ -73039,7 +73039,7 @@
         <v>0.5960301428303865</v>
       </c>
       <c r="P981" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q981" t="n">
         <v>0</v>
@@ -73048,16 +73048,16 @@
         <v>0</v>
       </c>
       <c r="S981" t="n">
-        <v>-27.91</v>
+        <v>0</v>
       </c>
       <c r="T981" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="U981" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="V981" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="982">
@@ -73113,7 +73113,7 @@
         <v>1.605035503384443</v>
       </c>
       <c r="P982" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q982" t="n">
         <v>0</v>
@@ -73131,7 +73131,7 @@
         <v>0</v>
       </c>
       <c r="V982" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983">
@@ -73187,13 +73187,13 @@
         <v>2.253796431417641</v>
       </c>
       <c r="P983" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q983" t="n">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="R983" t="n">
-        <v>1955</v>
+        <v>0</v>
       </c>
       <c r="S983" t="n">
         <v>0</v>
@@ -73261,7 +73261,7 @@
         <v>2.622587456925885</v>
       </c>
       <c r="P984" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q984" t="n">
         <v>0</v>
@@ -73335,7 +73335,7 @@
         <v>2.664801503753324</v>
       </c>
       <c r="P985" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q985" t="n">
         <v>0</v>
@@ -73409,7 +73409,7 @@
         <v>6.011172710886058</v>
       </c>
       <c r="P986" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q986" t="n">
         <v>0</v>
@@ -73418,13 +73418,13 @@
         <v>0</v>
       </c>
       <c r="S986" t="n">
-        <v>0</v>
+        <v>-127.916</v>
       </c>
       <c r="T986" t="n">
-        <v>0</v>
+        <v>7.916</v>
       </c>
       <c r="U986" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="V986" t="n">
         <v>1</v>
@@ -73483,7 +73483,7 @@
         <v>7.92669805351079</v>
       </c>
       <c r="P987" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q987" t="n">
         <v>0</v>
@@ -73557,7 +73557,7 @@
         <v>9.703245328063304</v>
       </c>
       <c r="P988" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q988" t="n">
         <v>0</v>
@@ -73631,7 +73631,7 @@
         <v>10.99328654884562</v>
       </c>
       <c r="P989" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q989" t="n">
         <v>0</v>
@@ -73705,7 +73705,7 @@
         <v>10.57614015116042</v>
       </c>
       <c r="P990" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q990" t="n">
         <v>0</v>
@@ -73779,7 +73779,7 @@
         <v>9.556112409928573</v>
       </c>
       <c r="P991" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q991" t="n">
         <v>0</v>
@@ -73853,7 +73853,7 @@
         <v>7.511484405018564</v>
       </c>
       <c r="P992" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q992" t="n">
         <v>0</v>
@@ -73927,7 +73927,7 @@
         <v>4.880385226278804</v>
       </c>
       <c r="P993" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q993" t="n">
         <v>0</v>
@@ -74001,7 +74001,7 @@
         <v>4.058550205979373</v>
       </c>
       <c r="P994" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q994" t="n">
         <v>0</v>
@@ -74019,7 +74019,7 @@
         <v>0</v>
       </c>
       <c r="V994" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995">
@@ -74084,13 +74084,13 @@
         <v>0</v>
       </c>
       <c r="S995" t="n">
-        <v>52.034</v>
+        <v>0</v>
       </c>
       <c r="T995" t="n">
-        <v>3.966</v>
+        <v>0</v>
       </c>
       <c r="U995" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="V995" t="n">
         <v>2</v>
@@ -74519,7 +74519,7 @@
         <v>2.634414528152547</v>
       </c>
       <c r="P1001" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q1001" t="n">
         <v>0</v>
@@ -74528,16 +74528,16 @@
         <v>0</v>
       </c>
       <c r="S1001" t="n">
-        <v>-25.976</v>
+        <v>0</v>
       </c>
       <c r="T1001" t="n">
-        <v>3.976</v>
+        <v>0</v>
       </c>
       <c r="U1001" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="V1001" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002">
@@ -74596,10 +74596,10 @@
         <v>1</v>
       </c>
       <c r="Q1002" t="n">
-        <v>1966</v>
+        <v>0</v>
       </c>
       <c r="R1002" t="n">
-        <v>1996</v>
+        <v>0</v>
       </c>
       <c r="S1002" t="n">
         <v>0</v>
@@ -74963,7 +74963,7 @@
         <v>2.344882268219408</v>
       </c>
       <c r="P1007" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q1007" t="n">
         <v>0</v>
@@ -74972,16 +74972,16 @@
         <v>0</v>
       </c>
       <c r="S1007" t="n">
-        <v>-7.988</v>
+        <v>0</v>
       </c>
       <c r="T1007" t="n">
-        <v>3.988</v>
+        <v>0</v>
       </c>
       <c r="U1007" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V1007" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -75046,13 +75046,13 @@
         <v>0</v>
       </c>
       <c r="S1008" t="n">
-        <v>0</v>
+        <v>-47.956</v>
       </c>
       <c r="T1008" t="n">
-        <v>0</v>
+        <v>7.956</v>
       </c>
       <c r="U1008" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="V1008" t="n">
         <v>2</v>
@@ -75111,13 +75111,13 @@
         <v>1.449820460016781</v>
       </c>
       <c r="P1009" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q1009" t="n">
-        <v>0</v>
+        <v>2013</v>
       </c>
       <c r="R1009" t="n">
-        <v>0</v>
+        <v>1983</v>
       </c>
       <c r="S1009" t="n">
         <v>0</v>
@@ -75129,7 +75129,7 @@
         <v>0</v>
       </c>
       <c r="V1009" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1010">
@@ -75188,10 +75188,10 @@
         <v>-1</v>
       </c>
       <c r="Q1010" t="n">
-        <v>2010</v>
+        <v>0</v>
       </c>
       <c r="R1010" t="n">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="S1010" t="n">
         <v>0</v>
@@ -75999,7 +75999,7 @@
         <v>5.911267338069365</v>
       </c>
       <c r="P1021" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q1021" t="n">
         <v>0</v>
@@ -76008,16 +76008,16 @@
         <v>0</v>
       </c>
       <c r="S1021" t="n">
-        <v>0</v>
+        <v>160.236</v>
       </c>
       <c r="T1021" t="n">
-        <v>0</v>
+        <v>7.764</v>
       </c>
       <c r="U1021" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="V1021" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022">
@@ -76073,7 +76073,7 @@
         <v>5.590447286581821</v>
       </c>
       <c r="P1022" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q1022" t="n">
         <v>0</v>
@@ -76091,7 +76091,7 @@
         <v>0</v>
       </c>
       <c r="V1022" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023">
@@ -76147,7 +76147,7 @@
         <v>6.13724560476544</v>
       </c>
       <c r="P1023" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q1023" t="n">
         <v>0</v>
@@ -76165,7 +76165,7 @@
         <v>0</v>
       </c>
       <c r="V1023" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024">
@@ -76221,7 +76221,7 @@
         <v>6.366575256819033</v>
       </c>
       <c r="P1024" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q1024" t="n">
         <v>0</v>
@@ -76239,7 +76239,7 @@
         <v>0</v>
       </c>
       <c r="V1024" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025">
@@ -76298,10 +76298,10 @@
         <v>-1</v>
       </c>
       <c r="Q1025" t="n">
-        <v>0</v>
+        <v>1942</v>
       </c>
       <c r="R1025" t="n">
-        <v>0</v>
+        <v>1912</v>
       </c>
       <c r="S1025" t="n">
         <v>0</v>
@@ -76739,7 +76739,7 @@
         <v>5.778951549667909</v>
       </c>
       <c r="P1031" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q1031" t="n">
         <v>0</v>
@@ -76748,16 +76748,16 @@
         <v>0</v>
       </c>
       <c r="S1031" t="n">
-        <v>134.178</v>
+        <v>0</v>
       </c>
       <c r="T1031" t="n">
-        <v>3.822</v>
+        <v>0</v>
       </c>
       <c r="U1031" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="V1031" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1032">
@@ -76822,10 +76822,10 @@
         <v>0</v>
       </c>
       <c r="S1032" t="n">
-        <v>0</v>
+        <v>-7.648000000000001</v>
       </c>
       <c r="T1032" t="n">
-        <v>0</v>
+        <v>7.648000000000001</v>
       </c>
       <c r="U1032" t="n">
         <v>0</v>
@@ -77479,13 +77479,13 @@
         <v>0.9768149830724724</v>
       </c>
       <c r="P1041" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q1041" t="n">
-        <v>0</v>
+        <v>1940</v>
       </c>
       <c r="R1041" t="n">
-        <v>0</v>
+        <v>1910</v>
       </c>
       <c r="S1041" t="n">
         <v>0</v>
@@ -77497,7 +77497,969 @@
         <v>0</v>
       </c>
       <c r="V1041" t="n">
-        <v>2</v>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>18987</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>1704434400</v>
+      </c>
+      <c r="D1042" t="inlineStr">
+        <is>
+          <t>SA24091704434400</t>
+        </is>
+      </c>
+      <c r="E1042" t="inlineStr">
+        <is>
+          <t>2024-01-05 14:00:00</t>
+        </is>
+      </c>
+      <c r="F1042" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1042" t="n">
+        <v>1909</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>1912</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>1903</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>2147</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>110656</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>1911.156741522299</v>
+      </c>
+      <c r="N1042" t="n">
+        <v>1912.218849581699</v>
+      </c>
+      <c r="O1042" t="n">
+        <v>1.062108059399634</v>
+      </c>
+      <c r="P1042" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1042" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>18988</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>1704435300</v>
+      </c>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>SA24091704435300</t>
+        </is>
+      </c>
+      <c r="E1043" t="inlineStr">
+        <is>
+          <t>2024-01-05 14:15:00</t>
+        </is>
+      </c>
+      <c r="F1043" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1043" t="n">
+        <v>1910</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>1921</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>1910</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>1919</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>2972</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>110346</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>1913.771161014866</v>
+      </c>
+      <c r="N1043" t="n">
+        <v>1913.45178602139</v>
+      </c>
+      <c r="O1043" t="n">
+        <v>0.3193749934762309</v>
+      </c>
+      <c r="P1043" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1043" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="1" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>18989</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>1704436200</v>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>SA24091704436200</t>
+        </is>
+      </c>
+      <c r="E1044" t="inlineStr">
+        <is>
+          <t>2024-01-05 14:30:00</t>
+        </is>
+      </c>
+      <c r="F1044" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1044" t="n">
+        <v>1919</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>1921</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>1912</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>1912</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>2071</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>110313</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>1913.180774009911</v>
+      </c>
+      <c r="N1044" t="n">
+        <v>1913.187824926592</v>
+      </c>
+      <c r="O1044" t="n">
+        <v>0.007050916681009767</v>
+      </c>
+      <c r="P1044" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1044" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="1" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>18990</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>1704437100</v>
+      </c>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>SA24091704437100</t>
+        </is>
+      </c>
+      <c r="E1045" t="inlineStr">
+        <is>
+          <t>2024-01-05 14:45:00</t>
+        </is>
+      </c>
+      <c r="F1045" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1045" t="n">
+        <v>1913</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>1915</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>1910</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>1915</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>1731</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>110265</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>1913.787182673274</v>
+      </c>
+      <c r="N1045" t="n">
+        <v>1913.517311303575</v>
+      </c>
+      <c r="O1045" t="n">
+        <v>0.2698713696988762</v>
+      </c>
+      <c r="P1045" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1045" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="1" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>18991</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>1704438000</v>
+      </c>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>SA24091704438000</t>
+        </is>
+      </c>
+      <c r="E1046" t="inlineStr">
+        <is>
+          <t>2024-01-05 15:00:00</t>
+        </is>
+      </c>
+      <c r="F1046" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1046" t="n">
+        <v>1915</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>1915</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>1905</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>1905</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>5421</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>110158</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>1910.858121782183</v>
+      </c>
+      <c r="N1046" t="n">
+        <v>1911.96870924838</v>
+      </c>
+      <c r="O1046" t="n">
+        <v>1.110587466196876</v>
+      </c>
+      <c r="P1046" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1046" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="1" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>28182</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>1704460500</v>
+      </c>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>SA24091704460500</t>
+        </is>
+      </c>
+      <c r="E1047" t="inlineStr">
+        <is>
+          <t>2024-01-05 21:15:00</t>
+        </is>
+      </c>
+      <c r="F1047" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1047" t="n">
+        <v>1911</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>1917</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>1890</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>1892</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>13620</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>110444</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>1904.572081188122</v>
+      </c>
+      <c r="N1047" t="n">
+        <v>1908.338034839583</v>
+      </c>
+      <c r="O1047" t="n">
+        <v>3.765953651461132</v>
+      </c>
+      <c r="P1047" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1047" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="1" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>28183</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>1704461400</v>
+      </c>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>SA24091704461400</t>
+        </is>
+      </c>
+      <c r="E1048" t="inlineStr">
+        <is>
+          <t>2024-01-05 21:30:00</t>
+        </is>
+      </c>
+      <c r="F1048" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1048" t="n">
+        <v>1892</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>1905</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>1891</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>1903</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>6228</v>
+      </c>
+      <c r="L1048" t="n">
+        <v>109698</v>
+      </c>
+      <c r="M1048" t="n">
+        <v>1904.048054125415</v>
+      </c>
+      <c r="N1048" t="n">
+        <v>1907.367483050568</v>
+      </c>
+      <c r="O1048" t="n">
+        <v>3.319428925153261</v>
+      </c>
+      <c r="P1048" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1048" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="1" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>28184</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>1704462300</v>
+      </c>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>SA24091704462300</t>
+        </is>
+      </c>
+      <c r="E1049" t="inlineStr">
+        <is>
+          <t>2024-01-05 21:45:00</t>
+        </is>
+      </c>
+      <c r="F1049" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1049" t="n">
+        <v>1902</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>1905</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>1898</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>1901</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>2715</v>
+      </c>
+      <c r="L1049" t="n">
+        <v>109693</v>
+      </c>
+      <c r="M1049" t="n">
+        <v>1903.03203608361</v>
+      </c>
+      <c r="N1049" t="n">
+        <v>1906.209758859555</v>
+      </c>
+      <c r="O1049" t="n">
+        <v>3.177722775945313</v>
+      </c>
+      <c r="P1049" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1049" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="1" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>28185</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>1704463200</v>
+      </c>
+      <c r="D1050" t="inlineStr">
+        <is>
+          <t>SA24091704463200</t>
+        </is>
+      </c>
+      <c r="E1050" t="inlineStr">
+        <is>
+          <t>2024-01-05 22:00:00</t>
+        </is>
+      </c>
+      <c r="F1050" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1050" t="n">
+        <v>1902</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>1908</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>1899</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>1906</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>2156</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>109832</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>1904.021357389073</v>
+      </c>
+      <c r="N1050" t="n">
+        <v>1906.171620885091</v>
+      </c>
+      <c r="O1050" t="n">
+        <v>2.15026349601726</v>
+      </c>
+      <c r="P1050" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1050" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="1" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>28186</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>1704464100</v>
+      </c>
+      <c r="D1051" t="inlineStr">
+        <is>
+          <t>SA24091704464100</t>
+        </is>
+      </c>
+      <c r="E1051" t="inlineStr">
+        <is>
+          <t>2024-01-05 22:15:00</t>
+        </is>
+      </c>
+      <c r="F1051" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1051" t="n">
+        <v>1905</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>1907</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>1901</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>1902</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>2121</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>110010</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>1903.347571592716</v>
+      </c>
+      <c r="N1051" t="n">
+        <v>1905.413144360528</v>
+      </c>
+      <c r="O1051" t="n">
+        <v>2.065572767812682</v>
+      </c>
+      <c r="P1051" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1051" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="1" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>28187</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>1704465000</v>
+      </c>
+      <c r="D1052" t="inlineStr">
+        <is>
+          <t>SA24091704465000</t>
+        </is>
+      </c>
+      <c r="E1052" t="inlineStr">
+        <is>
+          <t>2024-01-05 22:30:00</t>
+        </is>
+      </c>
+      <c r="F1052" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1052" t="n">
+        <v>1902</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>1903</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>1896</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>1896</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>2037</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>109915</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>1900.898381061811</v>
+      </c>
+      <c r="N1052" t="n">
+        <v>1903.701663567705</v>
+      </c>
+      <c r="O1052" t="n">
+        <v>2.803282505894231</v>
+      </c>
+      <c r="P1052" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1052" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="1" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>28188</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>1704465900</v>
+      </c>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>SA24091704465900</t>
+        </is>
+      </c>
+      <c r="E1053" t="inlineStr">
+        <is>
+          <t>2024-01-05 22:45:00</t>
+        </is>
+      </c>
+      <c r="F1053" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1053" t="n">
+        <v>1897</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>1898</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>1892</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>1898</v>
+      </c>
+      <c r="K1053" t="n">
+        <v>2867</v>
+      </c>
+      <c r="L1053" t="n">
+        <v>109979</v>
+      </c>
+      <c r="M1053" t="n">
+        <v>1899.932254041207</v>
+      </c>
+      <c r="N1053" t="n">
+        <v>1902.664997464486</v>
+      </c>
+      <c r="O1053" t="n">
+        <v>2.732743423278407</v>
+      </c>
+      <c r="P1053" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1053" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="1" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>28189</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>1704466800</v>
+      </c>
+      <c r="D1054" t="inlineStr">
+        <is>
+          <t>SA24091704466800</t>
+        </is>
+      </c>
+      <c r="E1054" t="inlineStr">
+        <is>
+          <t>2024-01-05 23:00:00</t>
+        </is>
+      </c>
+      <c r="F1054" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1054" t="n">
+        <v>1898</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>1900</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>1895</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>1898</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>1941</v>
+      </c>
+      <c r="L1054" t="n">
+        <v>109305</v>
+      </c>
+      <c r="M1054" t="n">
+        <v>1899.288169360805</v>
+      </c>
+      <c r="N1054" t="n">
+        <v>1901.816816107306</v>
+      </c>
+      <c r="O1054" t="n">
+        <v>2.528646746501181</v>
+      </c>
+      <c r="P1054" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1054" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1054"/>
+  <dimension ref="A1:V1135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77017,22 +77017,22 @@
         <v>1909</v>
       </c>
       <c r="J1035" t="n">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="K1035" t="n">
-        <v>2798</v>
+        <v>3042</v>
       </c>
       <c r="L1035" t="n">
         <v>110048</v>
       </c>
       <c r="M1035" t="n">
-        <v>1911.139013353652</v>
+        <v>1911.472346686986</v>
       </c>
       <c r="N1035" t="n">
-        <v>1913.562703254372</v>
+        <v>1913.74452143619</v>
       </c>
       <c r="O1035" t="n">
-        <v>2.42368990071941</v>
+        <v>2.272174749204169</v>
       </c>
       <c r="P1035" t="n">
         <v>0</v>
@@ -77100,13 +77100,13 @@
         <v>109783</v>
       </c>
       <c r="M1036" t="n">
-        <v>1911.426008902435</v>
+        <v>1911.648231124657</v>
       </c>
       <c r="N1036" t="n">
-        <v>1913.278575389941</v>
+        <v>1913.427335720519</v>
       </c>
       <c r="O1036" t="n">
-        <v>1.852566487505555</v>
+        <v>1.779104595861554</v>
       </c>
       <c r="P1036" t="n">
         <v>0</v>
@@ -77174,13 +77174,13 @@
         <v>109980</v>
       </c>
       <c r="M1037" t="n">
-        <v>1912.284005934957</v>
+        <v>1912.432154083105</v>
       </c>
       <c r="N1037" t="n">
-        <v>1913.40974350086</v>
+        <v>1913.531456498606</v>
       </c>
       <c r="O1037" t="n">
-        <v>1.125737565903592</v>
+        <v>1.09930241550137</v>
       </c>
       <c r="P1037" t="n">
         <v>0</v>
@@ -77248,13 +77248,13 @@
         <v>109855</v>
       </c>
       <c r="M1038" t="n">
-        <v>1913.856003956638</v>
+        <v>1913.954769388737</v>
       </c>
       <c r="N1038" t="n">
-        <v>1914.062517409795</v>
+        <v>1914.162100771587</v>
       </c>
       <c r="O1038" t="n">
-        <v>0.206513453156731</v>
+        <v>0.2073313828500432</v>
       </c>
       <c r="P1038" t="n">
         <v>0</v>
@@ -77322,13 +77322,13 @@
         <v>109963</v>
       </c>
       <c r="M1039" t="n">
-        <v>1913.904002637759</v>
+        <v>1913.969846259158</v>
       </c>
       <c r="N1039" t="n">
-        <v>1914.051150608014</v>
+        <v>1914.132627904025</v>
       </c>
       <c r="O1039" t="n">
-        <v>0.1471479702549914</v>
+        <v>0.1627816448674366</v>
       </c>
       <c r="P1039" t="n">
         <v>0</v>
@@ -77396,13 +77396,13 @@
         <v>110105</v>
       </c>
       <c r="M1040" t="n">
-        <v>1912.602668425173</v>
+        <v>1912.646564172772</v>
       </c>
       <c r="N1040" t="n">
-        <v>1913.314577770193</v>
+        <v>1913.381241012384</v>
       </c>
       <c r="O1040" t="n">
-        <v>0.7119093450201035</v>
+        <v>0.7346768396118932</v>
       </c>
       <c r="P1040" t="n">
         <v>0</v>
@@ -77461,31 +77461,31 @@
         <v>1905</v>
       </c>
       <c r="J1041" t="n">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="K1041" t="n">
-        <v>915</v>
+        <v>2787</v>
       </c>
       <c r="L1041" t="n">
         <v>110362</v>
       </c>
       <c r="M1041" t="n">
-        <v>1911.735112283449</v>
+        <v>1911.431042781848</v>
       </c>
       <c r="N1041" t="n">
-        <v>1912.711927266521</v>
+        <v>1912.584651737405</v>
       </c>
       <c r="O1041" t="n">
-        <v>0.9768149830724724</v>
+        <v>1.153608955557047</v>
       </c>
       <c r="P1041" t="n">
         <v>-1</v>
       </c>
       <c r="Q1041" t="n">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="R1041" t="n">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="S1041" t="n">
         <v>0</v>
@@ -77544,13 +77544,13 @@
         <v>110656</v>
       </c>
       <c r="M1042" t="n">
-        <v>1911.156741522299</v>
+        <v>1910.954028521232</v>
       </c>
       <c r="N1042" t="n">
-        <v>1912.218849581699</v>
+        <v>1912.114715057877</v>
       </c>
       <c r="O1042" t="n">
-        <v>1.062108059399634</v>
+        <v>1.160686536644334</v>
       </c>
       <c r="P1042" t="n">
         <v>-1</v>
@@ -77618,13 +77618,13 @@
         <v>110346</v>
       </c>
       <c r="M1043" t="n">
-        <v>1913.771161014866</v>
+        <v>1913.636019014155</v>
       </c>
       <c r="N1043" t="n">
-        <v>1913.45178602139</v>
+        <v>1913.366585047354</v>
       </c>
       <c r="O1043" t="n">
-        <v>0.3193749934762309</v>
+        <v>0.2694339668012162</v>
       </c>
       <c r="P1043" t="n">
         <v>-1</v>
@@ -77692,13 +77692,13 @@
         <v>110313</v>
       </c>
       <c r="M1044" t="n">
-        <v>1913.180774009911</v>
+        <v>1913.09067934277</v>
       </c>
       <c r="N1044" t="n">
-        <v>1913.187824926592</v>
+        <v>1913.118115038744</v>
       </c>
       <c r="O1044" t="n">
-        <v>0.007050916681009767</v>
+        <v>0.02743569597373607</v>
       </c>
       <c r="P1044" t="n">
         <v>-1</v>
@@ -77766,13 +77766,13 @@
         <v>110265</v>
       </c>
       <c r="M1045" t="n">
-        <v>1913.787182673274</v>
+        <v>1913.727119561847</v>
       </c>
       <c r="N1045" t="n">
-        <v>1913.517311303575</v>
+        <v>1913.46027594079</v>
       </c>
       <c r="O1045" t="n">
-        <v>0.2698713696988762</v>
+        <v>0.2668436210565233</v>
       </c>
       <c r="P1045" t="n">
         <v>-1</v>
@@ -77840,13 +77840,13 @@
         <v>110158</v>
       </c>
       <c r="M1046" t="n">
-        <v>1910.858121782183</v>
+        <v>1910.818079707898</v>
       </c>
       <c r="N1046" t="n">
-        <v>1911.96870924838</v>
+        <v>1911.922043951556</v>
       </c>
       <c r="O1046" t="n">
-        <v>1.110587466196876</v>
+        <v>1.103964243657629</v>
       </c>
       <c r="P1046" t="n">
         <v>-1</v>
@@ -77914,13 +77914,13 @@
         <v>110444</v>
       </c>
       <c r="M1047" t="n">
-        <v>1904.572081188122</v>
+        <v>1904.545386471932</v>
       </c>
       <c r="N1047" t="n">
-        <v>1908.338034839583</v>
+        <v>1908.299854142182</v>
       </c>
       <c r="O1047" t="n">
-        <v>3.765953651461132</v>
+        <v>3.754467670249824</v>
       </c>
       <c r="P1047" t="n">
         <v>-1</v>
@@ -77988,13 +77988,13 @@
         <v>109698</v>
       </c>
       <c r="M1048" t="n">
-        <v>1904.048054125415</v>
+        <v>1904.030257647955</v>
       </c>
       <c r="N1048" t="n">
-        <v>1907.367483050568</v>
+        <v>1907.336244298149</v>
       </c>
       <c r="O1048" t="n">
-        <v>3.319428925153261</v>
+        <v>3.305986650193745</v>
       </c>
       <c r="P1048" t="n">
         <v>-1</v>
@@ -78062,13 +78062,13 @@
         <v>109693</v>
       </c>
       <c r="M1049" t="n">
-        <v>1903.03203608361</v>
+        <v>1903.020171765304</v>
       </c>
       <c r="N1049" t="n">
-        <v>1906.209758859555</v>
+        <v>1906.184199880303</v>
       </c>
       <c r="O1049" t="n">
-        <v>3.177722775945313</v>
+        <v>3.164028114999837</v>
       </c>
       <c r="P1049" t="n">
         <v>-1</v>
@@ -78136,13 +78136,13 @@
         <v>109832</v>
       </c>
       <c r="M1050" t="n">
-        <v>1904.021357389073</v>
+        <v>1904.013447843536</v>
       </c>
       <c r="N1050" t="n">
-        <v>1906.171620885091</v>
+        <v>1906.150708992975</v>
       </c>
       <c r="O1050" t="n">
-        <v>2.15026349601726</v>
+        <v>2.13726114943961</v>
       </c>
       <c r="P1050" t="n">
         <v>-1</v>
@@ -78210,13 +78210,13 @@
         <v>110010</v>
       </c>
       <c r="M1051" t="n">
-        <v>1903.347571592716</v>
+        <v>1903.342298562357</v>
       </c>
       <c r="N1051" t="n">
-        <v>1905.413144360528</v>
+        <v>1905.396034630616</v>
       </c>
       <c r="O1051" t="n">
-        <v>2.065572767812682</v>
+        <v>2.053736068258786</v>
       </c>
       <c r="P1051" t="n">
         <v>-1</v>
@@ -78284,13 +78284,13 @@
         <v>109915</v>
       </c>
       <c r="M1052" t="n">
-        <v>1900.898381061811</v>
+        <v>1900.894865708238</v>
       </c>
       <c r="N1052" t="n">
-        <v>1903.701663567705</v>
+        <v>1903.687664697777</v>
       </c>
       <c r="O1052" t="n">
-        <v>2.803282505894231</v>
+        <v>2.792798989538369</v>
       </c>
       <c r="P1052" t="n">
         <v>-1</v>
@@ -78358,13 +78358,13 @@
         <v>109979</v>
       </c>
       <c r="M1053" t="n">
-        <v>1899.932254041207</v>
+        <v>1899.929910472159</v>
       </c>
       <c r="N1053" t="n">
-        <v>1902.664997464486</v>
+        <v>1902.653543843635</v>
       </c>
       <c r="O1053" t="n">
-        <v>2.732743423278407</v>
+        <v>2.723633371476353</v>
       </c>
       <c r="P1053" t="n">
         <v>-1</v>
@@ -78432,13 +78432,13 @@
         <v>109305</v>
       </c>
       <c r="M1054" t="n">
-        <v>1899.288169360805</v>
+        <v>1899.286606981439</v>
       </c>
       <c r="N1054" t="n">
-        <v>1901.816816107306</v>
+        <v>1901.807444962974</v>
       </c>
       <c r="O1054" t="n">
-        <v>2.528646746501181</v>
+        <v>2.520837981534896</v>
       </c>
       <c r="P1054" t="n">
         <v>-1</v>
@@ -78460,6 +78460,6000 @@
       </c>
       <c r="V1054" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="1" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>69069</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>1704676500</v>
+      </c>
+      <c r="D1055" t="inlineStr">
+        <is>
+          <t>SA24091704676500</t>
+        </is>
+      </c>
+      <c r="E1055" t="inlineStr">
+        <is>
+          <t>2024-01-08 09:15:00</t>
+        </is>
+      </c>
+      <c r="F1055" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1055" t="n">
+        <v>1897</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>1908</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>1892</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>1905</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>9971</v>
+      </c>
+      <c r="L1055" t="n">
+        <v>109070</v>
+      </c>
+      <c r="M1055" t="n">
+        <v>1901.19107132096</v>
+      </c>
+      <c r="N1055" t="n">
+        <v>1902.387909515161</v>
+      </c>
+      <c r="O1055" t="n">
+        <v>1.196838194200836</v>
+      </c>
+      <c r="P1055" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1055" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="1" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>74178</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>1704677400</v>
+      </c>
+      <c r="D1056" t="inlineStr">
+        <is>
+          <t>SA24091704677400</t>
+        </is>
+      </c>
+      <c r="E1056" t="inlineStr">
+        <is>
+          <t>2024-01-08 09:30:00</t>
+        </is>
+      </c>
+      <c r="F1056" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1056" t="n">
+        <v>1905</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>1905</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>1883</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>1889</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>8882</v>
+      </c>
+      <c r="L1056" t="n">
+        <v>108504</v>
+      </c>
+      <c r="M1056" t="n">
+        <v>1897.12738088064</v>
+      </c>
+      <c r="N1056" t="n">
+        <v>1899.953744148768</v>
+      </c>
+      <c r="O1056" t="n">
+        <v>2.826363268127579</v>
+      </c>
+      <c r="P1056" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1056" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="1" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>74179</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>1704678300</v>
+      </c>
+      <c r="D1057" t="inlineStr">
+        <is>
+          <t>SA24091704678300</t>
+        </is>
+      </c>
+      <c r="E1057" t="inlineStr">
+        <is>
+          <t>2024-01-08 09:45:00</t>
+        </is>
+      </c>
+      <c r="F1057" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1057" t="n">
+        <v>1889</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>1896</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>1888</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>1894</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>2703</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>108500</v>
+      </c>
+      <c r="M1057" t="n">
+        <v>1896.084920587093</v>
+      </c>
+      <c r="N1057" t="n">
+        <v>1898.871245212628</v>
+      </c>
+      <c r="O1057" t="n">
+        <v>2.786324625534462</v>
+      </c>
+      <c r="P1057" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1057" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="1" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>81332</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>1704679200</v>
+      </c>
+      <c r="D1058" t="inlineStr">
+        <is>
+          <t>SA24091704679200</t>
+        </is>
+      </c>
+      <c r="E1058" t="inlineStr">
+        <is>
+          <t>2024-01-08 10:00:00</t>
+        </is>
+      </c>
+      <c r="F1058" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1058" t="n">
+        <v>1894</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>1897</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>1887</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>1889</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>2278</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>108070</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>1893.723280391396</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>1897.076473355786</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>3.353192964390701</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1058" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="1" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>81333</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>1704680100</v>
+      </c>
+      <c r="D1059" t="inlineStr">
+        <is>
+          <t>SA24091704680100</t>
+        </is>
+      </c>
+      <c r="E1059" t="inlineStr">
+        <is>
+          <t>2024-01-08 10:15:00</t>
+        </is>
+      </c>
+      <c r="F1059" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1059" t="n">
+        <v>1888</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>1894</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>1885</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>1890</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>2462</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>108072</v>
+      </c>
+      <c r="M1059" t="n">
+        <v>1892.482186927597</v>
+      </c>
+      <c r="N1059" t="n">
+        <v>1895.789841836553</v>
+      </c>
+      <c r="O1059" t="n">
+        <v>3.307654908955328</v>
+      </c>
+      <c r="P1059" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1059" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="1" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>87465</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>1704681900</v>
+      </c>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>SA24091704681900</t>
+        </is>
+      </c>
+      <c r="E1060" t="inlineStr">
+        <is>
+          <t>2024-01-08 10:45:00</t>
+        </is>
+      </c>
+      <c r="F1060" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1060" t="n">
+        <v>1891</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>1895</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>1888</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>1890</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>2007</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>108628</v>
+      </c>
+      <c r="M1060" t="n">
+        <v>1891.654791285065</v>
+      </c>
+      <c r="N1060" t="n">
+        <v>1894.737143320815</v>
+      </c>
+      <c r="O1060" t="n">
+        <v>3.082352035750546</v>
+      </c>
+      <c r="P1060" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1060" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="1" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>89509</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>1704682800</v>
+      </c>
+      <c r="D1061" t="inlineStr">
+        <is>
+          <t>SA24091704682800</t>
+        </is>
+      </c>
+      <c r="E1061" t="inlineStr">
+        <is>
+          <t>2024-01-08 11:00:00</t>
+        </is>
+      </c>
+      <c r="F1061" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1061" t="n">
+        <v>1890</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>1890</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>1872</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>1873</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>7238</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>109609</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>1885.436527523377</v>
+      </c>
+      <c r="N1061" t="n">
+        <v>1890.784935444303</v>
+      </c>
+      <c r="O1061" t="n">
+        <v>5.348407920926547</v>
+      </c>
+      <c r="P1061" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1061" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="1" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>91553</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>1704683700</v>
+      </c>
+      <c r="D1062" t="inlineStr">
+        <is>
+          <t>SA24091704683700</t>
+        </is>
+      </c>
+      <c r="E1062" t="inlineStr">
+        <is>
+          <t>2024-01-08 11:15:00</t>
+        </is>
+      </c>
+      <c r="F1062" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1062" t="n">
+        <v>1873</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>1879</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>1874</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>3130</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>109930</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>1881.624351682251</v>
+      </c>
+      <c r="N1062" t="n">
+        <v>1887.733128999884</v>
+      </c>
+      <c r="O1062" t="n">
+        <v>6.108777317632985</v>
+      </c>
+      <c r="P1062" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1062" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="1" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>93597</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>1704684600</v>
+      </c>
+      <c r="D1063" t="inlineStr">
+        <is>
+          <t>SA24091704684600</t>
+        </is>
+      </c>
+      <c r="E1063" t="inlineStr">
+        <is>
+          <t>2024-01-08 11:30:00</t>
+        </is>
+      </c>
+      <c r="F1063" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1063" t="n">
+        <v>1873</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>1878</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>1876</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>3229</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>109756</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>1879.749567788168</v>
+      </c>
+      <c r="N1063" t="n">
+        <v>1885.599832818087</v>
+      </c>
+      <c r="O1063" t="n">
+        <v>5.850265029919456</v>
+      </c>
+      <c r="P1063" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1063" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="1" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>99729</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>1704692700</v>
+      </c>
+      <c r="D1064" t="inlineStr">
+        <is>
+          <t>SA24091704692700</t>
+        </is>
+      </c>
+      <c r="E1064" t="inlineStr">
+        <is>
+          <t>2024-01-08 13:45:00</t>
+        </is>
+      </c>
+      <c r="F1064" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1064" t="n">
+        <v>1877</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>1890</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>1875</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>1883</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>5277</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>109664</v>
+      </c>
+      <c r="M1064" t="n">
+        <v>1880.833045192112</v>
+      </c>
+      <c r="N1064" t="n">
+        <v>1885.127135942071</v>
+      </c>
+      <c r="O1064" t="n">
+        <v>4.294090749959196</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1064" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="1" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>101773</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>1704693600</v>
+      </c>
+      <c r="D1065" t="inlineStr">
+        <is>
+          <t>SA24091704693600</t>
+        </is>
+      </c>
+      <c r="E1065" t="inlineStr">
+        <is>
+          <t>2024-01-08 14:00:00</t>
+        </is>
+      </c>
+      <c r="F1065" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1065" t="n">
+        <v>1883</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>1892</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>1883</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>1890</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>2998</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>109218</v>
+      </c>
+      <c r="M1065" t="n">
+        <v>1883.888696794741</v>
+      </c>
+      <c r="N1065" t="n">
+        <v>1886.013111225331</v>
+      </c>
+      <c r="O1065" t="n">
+        <v>2.124414430589241</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1065" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="1" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>103817</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>1704694500</v>
+      </c>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>SA24091704694500</t>
+        </is>
+      </c>
+      <c r="E1066" t="inlineStr">
+        <is>
+          <t>2024-01-08 14:15:00</t>
+        </is>
+      </c>
+      <c r="F1066" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1066" t="n">
+        <v>1890</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>1898</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>1887</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>1891</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>3686</v>
+      </c>
+      <c r="L1066" t="n">
+        <v>108657</v>
+      </c>
+      <c r="M1066" t="n">
+        <v>1886.259131196494</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>1886.91981827527</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>0.6606870787761636</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1066" t="n">
+        <v>64.43600000000001</v>
+      </c>
+      <c r="T1066" t="n">
+        <v>7.564</v>
+      </c>
+      <c r="U1066" t="n">
+        <v>18</v>
+      </c>
+      <c r="V1066" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="1" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>105861</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>1704695400</v>
+      </c>
+      <c r="D1067" t="inlineStr">
+        <is>
+          <t>SA24091704695400</t>
+        </is>
+      </c>
+      <c r="E1067" t="inlineStr">
+        <is>
+          <t>2024-01-08 14:30:00</t>
+        </is>
+      </c>
+      <c r="F1067" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1067" t="n">
+        <v>1892</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>1893</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>1887</v>
+      </c>
+      <c r="J1067" t="n">
+        <v>1888</v>
+      </c>
+      <c r="K1067" t="n">
+        <v>1625</v>
+      </c>
+      <c r="L1067" t="n">
+        <v>108668</v>
+      </c>
+      <c r="M1067" t="n">
+        <v>1886.839420797663</v>
+      </c>
+      <c r="N1067" t="n">
+        <v>1887.116214952494</v>
+      </c>
+      <c r="O1067" t="n">
+        <v>0.2767941548308954</v>
+      </c>
+      <c r="P1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1067" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="1" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>109949</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>1704696300</v>
+      </c>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>SA24091704696300</t>
+        </is>
+      </c>
+      <c r="E1068" t="inlineStr">
+        <is>
+          <t>2024-01-08 14:45:00</t>
+        </is>
+      </c>
+      <c r="F1068" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1068" t="n">
+        <v>1888</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>1894</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>1875</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>1880</v>
+      </c>
+      <c r="K1068" t="n">
+        <v>6067</v>
+      </c>
+      <c r="L1068" t="n">
+        <v>109512</v>
+      </c>
+      <c r="M1068" t="n">
+        <v>1884.559613865109</v>
+      </c>
+      <c r="N1068" t="n">
+        <v>1885.822357688404</v>
+      </c>
+      <c r="O1068" t="n">
+        <v>1.262743823294841</v>
+      </c>
+      <c r="P1068" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1068" t="n">
+        <v>1910</v>
+      </c>
+      <c r="R1068" t="n">
+        <v>1880</v>
+      </c>
+      <c r="S1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1068" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="1" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>111993</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>1704697200</v>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>SA24091704697200</t>
+        </is>
+      </c>
+      <c r="E1069" t="inlineStr">
+        <is>
+          <t>2024-01-08 15:00:00</t>
+        </is>
+      </c>
+      <c r="F1069" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1069" t="n">
+        <v>1880</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>1886</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>1879</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>1883</v>
+      </c>
+      <c r="K1069" t="n">
+        <v>4052</v>
+      </c>
+      <c r="L1069" t="n">
+        <v>109277</v>
+      </c>
+      <c r="M1069" t="n">
+        <v>1884.03974257674</v>
+      </c>
+      <c r="N1069" t="n">
+        <v>1885.309201745058</v>
+      </c>
+      <c r="O1069" t="n">
+        <v>1.269459168318008</v>
+      </c>
+      <c r="P1069" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1069" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="1" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>128345</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>1704719700</v>
+      </c>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>SA24091704719700</t>
+        </is>
+      </c>
+      <c r="E1070" t="inlineStr">
+        <is>
+          <t>2024-01-08 21:15:00</t>
+        </is>
+      </c>
+      <c r="F1070" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1070" t="n">
+        <v>1885</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>1900</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>1883</v>
+      </c>
+      <c r="J1070" t="n">
+        <v>1897</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>11731</v>
+      </c>
+      <c r="L1070" t="n">
+        <v>110521</v>
+      </c>
+      <c r="M1070" t="n">
+        <v>1888.359828384493</v>
+      </c>
+      <c r="N1070" t="n">
+        <v>1887.434801427774</v>
+      </c>
+      <c r="O1070" t="n">
+        <v>0.9250269567187388</v>
+      </c>
+      <c r="P1070" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1070" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="1" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>148785</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>1704720600</v>
+      </c>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>SA24091704720600</t>
+        </is>
+      </c>
+      <c r="E1071" t="inlineStr">
+        <is>
+          <t>2024-01-08 21:30:00</t>
+        </is>
+      </c>
+      <c r="F1071" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1071" t="n">
+        <v>1898</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>1898</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>1887</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>1889</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>3748</v>
+      </c>
+      <c r="L1071" t="n">
+        <v>110990</v>
+      </c>
+      <c r="M1071" t="n">
+        <v>1888.573218922996</v>
+      </c>
+      <c r="N1071" t="n">
+        <v>1887.719382986361</v>
+      </c>
+      <c r="O1071" t="n">
+        <v>0.8538359366350505</v>
+      </c>
+      <c r="P1071" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1071" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="1" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>176379</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>1704721500</v>
+      </c>
+      <c r="D1072" t="inlineStr">
+        <is>
+          <t>SA24091704721500</t>
+        </is>
+      </c>
+      <c r="E1072" t="inlineStr">
+        <is>
+          <t>2024-01-08 21:45:00</t>
+        </is>
+      </c>
+      <c r="F1072" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1072" t="n">
+        <v>1889</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>1891</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>1878</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>1887</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>6183</v>
+      </c>
+      <c r="L1072" t="n">
+        <v>111306</v>
+      </c>
+      <c r="M1072" t="n">
+        <v>1888.048812615331</v>
+      </c>
+      <c r="N1072" t="n">
+        <v>1887.588586079749</v>
+      </c>
+      <c r="O1072" t="n">
+        <v>0.4602265355813415</v>
+      </c>
+      <c r="P1072" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1072" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="1" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>196819</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>1704722400</v>
+      </c>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>SA24091704722400</t>
+        </is>
+      </c>
+      <c r="E1073" t="inlineStr">
+        <is>
+          <t>2024-01-08 22:00:00</t>
+        </is>
+      </c>
+      <c r="F1073" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1073" t="n">
+        <v>1887</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>1887</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>1880</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>1884</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>2349</v>
+      </c>
+      <c r="L1073" t="n">
+        <v>111385</v>
+      </c>
+      <c r="M1073" t="n">
+        <v>1886.699208410221</v>
+      </c>
+      <c r="N1073" t="n">
+        <v>1886.936115883431</v>
+      </c>
+      <c r="O1073" t="n">
+        <v>0.2369074732105219</v>
+      </c>
+      <c r="P1073" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1073" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>226457</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>1704723300</v>
+      </c>
+      <c r="D1074" t="inlineStr">
+        <is>
+          <t>SA24091704723300</t>
+        </is>
+      </c>
+      <c r="E1074" t="inlineStr">
+        <is>
+          <t>2024-01-08 22:15:00</t>
+        </is>
+      </c>
+      <c r="F1074" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1074" t="n">
+        <v>1884</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>1886</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>1877</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>1884</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>2771</v>
+      </c>
+      <c r="L1074" t="n">
+        <v>111676</v>
+      </c>
+      <c r="M1074" t="n">
+        <v>1885.79947227348</v>
+      </c>
+      <c r="N1074" t="n">
+        <v>1886.402276631898</v>
+      </c>
+      <c r="O1074" t="n">
+        <v>0.602804358417643</v>
+      </c>
+      <c r="P1074" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1074" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="1" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>255073</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>1704724200</v>
+      </c>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>SA24091704724200</t>
+        </is>
+      </c>
+      <c r="E1075" t="inlineStr">
+        <is>
+          <t>2024-01-08 22:30:00</t>
+        </is>
+      </c>
+      <c r="F1075" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1075" t="n">
+        <v>1884</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>1886</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>1878</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>1882</v>
+      </c>
+      <c r="K1075" t="n">
+        <v>1345</v>
+      </c>
+      <c r="L1075" t="n">
+        <v>111940</v>
+      </c>
+      <c r="M1075" t="n">
+        <v>1884.532981515654</v>
+      </c>
+      <c r="N1075" t="n">
+        <v>1885.601862698826</v>
+      </c>
+      <c r="O1075" t="n">
+        <v>1.068881183171925</v>
+      </c>
+      <c r="P1075" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1075" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="1" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>285733</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>1704725100</v>
+      </c>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>SA24091704725100</t>
+        </is>
+      </c>
+      <c r="E1076" t="inlineStr">
+        <is>
+          <t>2024-01-08 22:45:00</t>
+        </is>
+      </c>
+      <c r="F1076" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1076" t="n">
+        <v>1882</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>1888</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>1880</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>1888</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>1546</v>
+      </c>
+      <c r="L1076" t="n">
+        <v>111943</v>
+      </c>
+      <c r="M1076" t="n">
+        <v>1885.688654343769</v>
+      </c>
+      <c r="N1076" t="n">
+        <v>1886.037887662676</v>
+      </c>
+      <c r="O1076" t="n">
+        <v>0.349233318906272</v>
+      </c>
+      <c r="P1076" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1076" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="1" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>311283</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>1704726000</v>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>SA24091704726000</t>
+        </is>
+      </c>
+      <c r="E1077" t="inlineStr">
+        <is>
+          <t>2024-01-08 23:00:00</t>
+        </is>
+      </c>
+      <c r="F1077" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1077" t="n">
+        <v>1888</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>1888</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>1882</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>1885</v>
+      </c>
+      <c r="K1077" t="n">
+        <v>1847</v>
+      </c>
+      <c r="L1077" t="n">
+        <v>111811</v>
+      </c>
+      <c r="M1077" t="n">
+        <v>1885.459102895846</v>
+      </c>
+      <c r="N1077" t="n">
+        <v>1885.849180814916</v>
+      </c>
+      <c r="O1077" t="n">
+        <v>0.3900779190701087</v>
+      </c>
+      <c r="P1077" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1077" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="1" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>352163</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>1704762900</v>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>SA24091704762900</t>
+        </is>
+      </c>
+      <c r="E1078" t="inlineStr">
+        <is>
+          <t>2024-01-09 09:15:00</t>
+        </is>
+      </c>
+      <c r="F1078" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1078" t="n">
+        <v>1888</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>1893</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>1881</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>1883</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>3901</v>
+      </c>
+      <c r="L1078" t="n">
+        <v>111048</v>
+      </c>
+      <c r="M1078" t="n">
+        <v>1884.639401930564</v>
+      </c>
+      <c r="N1078" t="n">
+        <v>1885.331147939477</v>
+      </c>
+      <c r="O1078" t="n">
+        <v>0.6917460089125598</v>
+      </c>
+      <c r="P1078" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1078" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="1" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>382823</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>1704763800</v>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>SA24091704763800</t>
+        </is>
+      </c>
+      <c r="E1079" t="inlineStr">
+        <is>
+          <t>2024-01-09 09:30:00</t>
+        </is>
+      </c>
+      <c r="F1079" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1079" t="n">
+        <v>1883</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>1904</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>1882</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>1904</v>
+      </c>
+      <c r="K1079" t="n">
+        <v>6507</v>
+      </c>
+      <c r="L1079" t="n">
+        <v>111244</v>
+      </c>
+      <c r="M1079" t="n">
+        <v>1891.092934620377</v>
+      </c>
+      <c r="N1079" t="n">
+        <v>1888.725484677754</v>
+      </c>
+      <c r="O1079" t="n">
+        <v>2.36744994262267</v>
+      </c>
+      <c r="P1079" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1079" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="1" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>406329</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>1704764700</v>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>SA24091704764700</t>
+        </is>
+      </c>
+      <c r="E1080" t="inlineStr">
+        <is>
+          <t>2024-01-09 09:45:00</t>
+        </is>
+      </c>
+      <c r="F1080" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1080" t="n">
+        <v>1904</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>1911</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>1899</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>1901</v>
+      </c>
+      <c r="K1080" t="n">
+        <v>7609</v>
+      </c>
+      <c r="L1080" t="n">
+        <v>111658</v>
+      </c>
+      <c r="M1080" t="n">
+        <v>1894.395289746918</v>
+      </c>
+      <c r="N1080" t="n">
+        <v>1890.957214736344</v>
+      </c>
+      <c r="O1080" t="n">
+        <v>3.438075010574266</v>
+      </c>
+      <c r="P1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1080" t="n">
+        <v>-127.604</v>
+      </c>
+      <c r="T1080" t="n">
+        <v>7.604</v>
+      </c>
+      <c r="U1080" t="n">
+        <v>-30</v>
+      </c>
+      <c r="V1080" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="1" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>439033</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>1704765600</v>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>SA24091704765600</t>
+        </is>
+      </c>
+      <c r="E1081" t="inlineStr">
+        <is>
+          <t>2024-01-09 10:00:00</t>
+        </is>
+      </c>
+      <c r="F1081" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1081" t="n">
+        <v>1901</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>1901</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>1891</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>1899</v>
+      </c>
+      <c r="K1081" t="n">
+        <v>3120</v>
+      </c>
+      <c r="L1081" t="n">
+        <v>112277</v>
+      </c>
+      <c r="M1081" t="n">
+        <v>1895.930193164612</v>
+      </c>
+      <c r="N1081" t="n">
+        <v>1892.419539329736</v>
+      </c>
+      <c r="O1081" t="n">
+        <v>3.510653834876393</v>
+      </c>
+      <c r="P1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1081" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="1" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>467650</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>1704766500</v>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>SA24091704766500</t>
+        </is>
+      </c>
+      <c r="E1082" t="inlineStr">
+        <is>
+          <t>2024-01-09 10:15:00</t>
+        </is>
+      </c>
+      <c r="F1082" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1082" t="n">
+        <v>1900</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>1903</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>1896</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>1901</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>1619</v>
+      </c>
+      <c r="L1082" t="n">
+        <v>112490</v>
+      </c>
+      <c r="M1082" t="n">
+        <v>1897.620128776408</v>
+      </c>
+      <c r="N1082" t="n">
+        <v>1893.979623087966</v>
+      </c>
+      <c r="O1082" t="n">
+        <v>3.640505688442772</v>
+      </c>
+      <c r="P1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1082" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="1" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>528970</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>1704768300</v>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>SA24091704768300</t>
+        </is>
+      </c>
+      <c r="E1083" t="inlineStr">
+        <is>
+          <t>2024-01-09 10:45:00</t>
+        </is>
+      </c>
+      <c r="F1083" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1083" t="n">
+        <v>1901</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>1902</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>1893</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>1897</v>
+      </c>
+      <c r="K1083" t="n">
+        <v>1762</v>
+      </c>
+      <c r="L1083" t="n">
+        <v>112755</v>
+      </c>
+      <c r="M1083" t="n">
+        <v>1897.413419184272</v>
+      </c>
+      <c r="N1083" t="n">
+        <v>1894.528782526517</v>
+      </c>
+      <c r="O1083" t="n">
+        <v>2.884636657754982</v>
+      </c>
+      <c r="P1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1083" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="1" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>559630</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>1704769200</v>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>SA24091704769200</t>
+        </is>
+      </c>
+      <c r="E1084" t="inlineStr">
+        <is>
+          <t>2024-01-09 11:00:00</t>
+        </is>
+      </c>
+      <c r="F1084" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1084" t="n">
+        <v>1897</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>1902</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>1893</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>1895</v>
+      </c>
+      <c r="K1084" t="n">
+        <v>1895</v>
+      </c>
+      <c r="L1084" t="n">
+        <v>113193</v>
+      </c>
+      <c r="M1084" t="n">
+        <v>1896.608946122848</v>
+      </c>
+      <c r="N1084" t="n">
+        <v>1894.614458430787</v>
+      </c>
+      <c r="O1084" t="n">
+        <v>1.994487692061739</v>
+      </c>
+      <c r="P1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1084" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="1" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>590290</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>1704770100</v>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>SA24091704770100</t>
+        </is>
+      </c>
+      <c r="E1085" t="inlineStr">
+        <is>
+          <t>2024-01-09 11:15:00</t>
+        </is>
+      </c>
+      <c r="F1085" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1085" t="n">
+        <v>1896</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>1903</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>1893</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>1899</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>2007</v>
+      </c>
+      <c r="L1085" t="n">
+        <v>113333</v>
+      </c>
+      <c r="M1085" t="n">
+        <v>1897.405964081899</v>
+      </c>
+      <c r="N1085" t="n">
+        <v>1895.411829625189</v>
+      </c>
+      <c r="O1085" t="n">
+        <v>1.994134456710071</v>
+      </c>
+      <c r="P1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1085" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="1" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>618907</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>1704771000</v>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>SA24091704771000</t>
+        </is>
+      </c>
+      <c r="E1086" t="inlineStr">
+        <is>
+          <t>2024-01-09 11:30:00</t>
+        </is>
+      </c>
+      <c r="F1086" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1086" t="n">
+        <v>1899</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>1901</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>1896</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>1896</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>1122</v>
+      </c>
+      <c r="L1086" t="n">
+        <v>113017</v>
+      </c>
+      <c r="M1086" t="n">
+        <v>1896.937309387933</v>
+      </c>
+      <c r="N1086" t="n">
+        <v>1895.518769693336</v>
+      </c>
+      <c r="O1086" t="n">
+        <v>1.418539694596348</v>
+      </c>
+      <c r="P1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1086" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="1" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>735415</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>1704779100</v>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>SA24091704779100</t>
+        </is>
+      </c>
+      <c r="E1087" t="inlineStr">
+        <is>
+          <t>2024-01-09 13:45:00</t>
+        </is>
+      </c>
+      <c r="F1087" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1087" t="n">
+        <v>1896</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>1898</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>1892</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>1896</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>1797</v>
+      </c>
+      <c r="L1087" t="n">
+        <v>113110</v>
+      </c>
+      <c r="M1087" t="n">
+        <v>1896.624872925289</v>
+      </c>
+      <c r="N1087" t="n">
+        <v>1895.60626611273</v>
+      </c>
+      <c r="O1087" t="n">
+        <v>1.018606812558801</v>
+      </c>
+      <c r="P1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1087" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="1" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>768119</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>1704780000</v>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>SA24091704780000</t>
+        </is>
+      </c>
+      <c r="E1088" t="inlineStr">
+        <is>
+          <t>2024-01-09 14:00:00</t>
+        </is>
+      </c>
+      <c r="F1088" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1088" t="n">
+        <v>1896</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>1896</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>1875</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>1876</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>7809</v>
+      </c>
+      <c r="L1088" t="n">
+        <v>113111</v>
+      </c>
+      <c r="M1088" t="n">
+        <v>1889.749915283526</v>
+      </c>
+      <c r="N1088" t="n">
+        <v>1892.04149045587</v>
+      </c>
+      <c r="O1088" t="n">
+        <v>2.291575172343983</v>
+      </c>
+      <c r="P1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1088" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="1" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>794691</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>1704780900</v>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>SA24091704780900</t>
+        </is>
+      </c>
+      <c r="E1089" t="inlineStr">
+        <is>
+          <t>2024-01-09 14:15:00</t>
+        </is>
+      </c>
+      <c r="F1089" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1089" t="n">
+        <v>1878</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>1882</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>1872</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>1879</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>4495</v>
+      </c>
+      <c r="L1089" t="n">
+        <v>114236</v>
+      </c>
+      <c r="M1089" t="n">
+        <v>1886.166610189017</v>
+      </c>
+      <c r="N1089" t="n">
+        <v>1889.670310372984</v>
+      </c>
+      <c r="O1089" t="n">
+        <v>3.503700183966885</v>
+      </c>
+      <c r="P1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1089" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="1" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>827395</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>1704781800</v>
+      </c>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>SA24091704781800</t>
+        </is>
+      </c>
+      <c r="E1090" t="inlineStr">
+        <is>
+          <t>2024-01-09 14:30:00</t>
+        </is>
+      </c>
+      <c r="F1090" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1090" t="n">
+        <v>1878</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>1880</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>1873</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>1876</v>
+      </c>
+      <c r="K1090" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L1090" t="n">
+        <v>114855</v>
+      </c>
+      <c r="M1090" t="n">
+        <v>1882.777740126012</v>
+      </c>
+      <c r="N1090" t="n">
+        <v>1887.184799396078</v>
+      </c>
+      <c r="O1090" t="n">
+        <v>4.407059270066156</v>
+      </c>
+      <c r="P1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1090" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="1" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>858055</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>1704782700</v>
+      </c>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>SA24091704782700</t>
+        </is>
+      </c>
+      <c r="E1091" t="inlineStr">
+        <is>
+          <t>2024-01-09 14:45:00</t>
+        </is>
+      </c>
+      <c r="F1091" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1091" t="n">
+        <v>1876</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>1882</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>1876</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>1876</v>
+      </c>
+      <c r="K1091" t="n">
+        <v>1908</v>
+      </c>
+      <c r="L1091" t="n">
+        <v>115111</v>
+      </c>
+      <c r="M1091" t="n">
+        <v>1880.518493417341</v>
+      </c>
+      <c r="N1091" t="n">
+        <v>1885.151199505882</v>
+      </c>
+      <c r="O1091" t="n">
+        <v>4.632706088540544</v>
+      </c>
+      <c r="P1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1091" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="1" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>886671</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>1704783600</v>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
+          <t>SA24091704783600</t>
+        </is>
+      </c>
+      <c r="E1092" t="inlineStr">
+        <is>
+          <t>2024-01-09 15:00:00</t>
+        </is>
+      </c>
+      <c r="F1092" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1092" t="n">
+        <v>1876</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>1879</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>1865</v>
+      </c>
+      <c r="J1092" t="n">
+        <v>1870</v>
+      </c>
+      <c r="K1092" t="n">
+        <v>5982</v>
+      </c>
+      <c r="L1092" t="n">
+        <v>114899</v>
+      </c>
+      <c r="M1092" t="n">
+        <v>1877.012328944894</v>
+      </c>
+      <c r="N1092" t="n">
+        <v>1882.396435959358</v>
+      </c>
+      <c r="O1092" t="n">
+        <v>5.384107014463325</v>
+      </c>
+      <c r="P1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1092" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="1" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>958211</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>1704806100</v>
+      </c>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>SA24091704806100</t>
+        </is>
+      </c>
+      <c r="E1093" t="inlineStr">
+        <is>
+          <t>2024-01-09 21:15:00</t>
+        </is>
+      </c>
+      <c r="F1093" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1093" t="n">
+        <v>1865</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>1866</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>1848</v>
+      </c>
+      <c r="J1093" t="n">
+        <v>1849</v>
+      </c>
+      <c r="K1093" t="n">
+        <v>15025</v>
+      </c>
+      <c r="L1093" t="n">
+        <v>115027</v>
+      </c>
+      <c r="M1093" t="n">
+        <v>1867.674885963263</v>
+      </c>
+      <c r="N1093" t="n">
+        <v>1876.32435669402</v>
+      </c>
+      <c r="O1093" t="n">
+        <v>8.649470730756775</v>
+      </c>
+      <c r="P1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1093" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="1" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>988871</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>1704807000</v>
+      </c>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>SA24091704807000</t>
+        </is>
+      </c>
+      <c r="E1094" t="inlineStr">
+        <is>
+          <t>2024-01-09 21:30:00</t>
+        </is>
+      </c>
+      <c r="F1094" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1094" t="n">
+        <v>1849</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>1849</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>1841</v>
+      </c>
+      <c r="J1094" t="n">
+        <v>1844</v>
+      </c>
+      <c r="K1094" t="n">
+        <v>9109</v>
+      </c>
+      <c r="L1094" t="n">
+        <v>118898</v>
+      </c>
+      <c r="M1094" t="n">
+        <v>1859.783257308842</v>
+      </c>
+      <c r="N1094" t="n">
+        <v>1870.447200931471</v>
+      </c>
+      <c r="O1094" t="n">
+        <v>10.66394362262849</v>
+      </c>
+      <c r="P1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1094" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="1" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>1017487</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>1704807900</v>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>SA24091704807900</t>
+        </is>
+      </c>
+      <c r="E1095" t="inlineStr">
+        <is>
+          <t>2024-01-09 21:45:00</t>
+        </is>
+      </c>
+      <c r="F1095" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1095" t="n">
+        <v>1844</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>1846</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>1836</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>1844</v>
+      </c>
+      <c r="K1095" t="n">
+        <v>7121</v>
+      </c>
+      <c r="L1095" t="n">
+        <v>120522</v>
+      </c>
+      <c r="M1095" t="n">
+        <v>1854.522171539228</v>
+      </c>
+      <c r="N1095" t="n">
+        <v>1865.63861894393</v>
+      </c>
+      <c r="O1095" t="n">
+        <v>11.11644740470228</v>
+      </c>
+      <c r="P1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1095" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="1" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>1031795</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>1704808800</v>
+      </c>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>SA24091704808800</t>
+        </is>
+      </c>
+      <c r="E1096" t="inlineStr">
+        <is>
+          <t>2024-01-09 22:00:00</t>
+        </is>
+      </c>
+      <c r="F1096" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1096" t="n">
+        <v>1843</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>1844</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>1834</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>1839</v>
+      </c>
+      <c r="K1096" t="n">
+        <v>3969</v>
+      </c>
+      <c r="L1096" t="n">
+        <v>120536</v>
+      </c>
+      <c r="M1096" t="n">
+        <v>1849.348114359486</v>
+      </c>
+      <c r="N1096" t="n">
+        <v>1860.795233681397</v>
+      </c>
+      <c r="O1096" t="n">
+        <v>11.44711932191171</v>
+      </c>
+      <c r="P1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1096" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="1" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>1048147</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>1704809700</v>
+      </c>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>SA24091704809700</t>
+        </is>
+      </c>
+      <c r="E1097" t="inlineStr">
+        <is>
+          <t>2024-01-09 22:15:00</t>
+        </is>
+      </c>
+      <c r="F1097" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1097" t="n">
+        <v>1840</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>1844</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>1838</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>1844</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>2443</v>
+      </c>
+      <c r="L1097" t="n">
+        <v>121129</v>
+      </c>
+      <c r="M1097" t="n">
+        <v>1847.565409572991</v>
+      </c>
+      <c r="N1097" t="n">
+        <v>1857.741554830234</v>
+      </c>
+      <c r="O1097" t="n">
+        <v>10.17614525724343</v>
+      </c>
+      <c r="P1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1097" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="1" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>1058367</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>1704810600</v>
+      </c>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>SA24091704810600</t>
+        </is>
+      </c>
+      <c r="E1098" t="inlineStr">
+        <is>
+          <t>2024-01-09 22:30:00</t>
+        </is>
+      </c>
+      <c r="F1098" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1098" t="n">
+        <v>1844</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>1844</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>1836</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>1837</v>
+      </c>
+      <c r="K1098" t="n">
+        <v>2018</v>
+      </c>
+      <c r="L1098" t="n">
+        <v>121446</v>
+      </c>
+      <c r="M1098" t="n">
+        <v>1844.043606381994</v>
+      </c>
+      <c r="N1098" t="n">
+        <v>1853.970363042919</v>
+      </c>
+      <c r="O1098" t="n">
+        <v>9.926756660924866</v>
+      </c>
+      <c r="P1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1098" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="1" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>1068587</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>1704811500</v>
+      </c>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>SA24091704811500</t>
+        </is>
+      </c>
+      <c r="E1099" t="inlineStr">
+        <is>
+          <t>2024-01-09 22:45:00</t>
+        </is>
+      </c>
+      <c r="F1099" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1099" t="n">
+        <v>1837</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>1841</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>1835</v>
+      </c>
+      <c r="J1099" t="n">
+        <v>1839</v>
+      </c>
+      <c r="K1099" t="n">
+        <v>2430</v>
+      </c>
+      <c r="L1099" t="n">
+        <v>121414</v>
+      </c>
+      <c r="M1099" t="n">
+        <v>1842.362404254663</v>
+      </c>
+      <c r="N1099" t="n">
+        <v>1851.248478853297</v>
+      </c>
+      <c r="O1099" t="n">
+        <v>8.886074598634195</v>
+      </c>
+      <c r="P1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1099" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="1" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>1089027</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>1704812400</v>
+      </c>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>SA24091704812400</t>
+        </is>
+      </c>
+      <c r="E1100" t="inlineStr">
+        <is>
+          <t>2024-01-09 23:00:00</t>
+        </is>
+      </c>
+      <c r="F1100" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1100" t="n">
+        <v>1838</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>1840</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>1835</v>
+      </c>
+      <c r="J1100" t="n">
+        <v>1837</v>
+      </c>
+      <c r="K1100" t="n">
+        <v>2898</v>
+      </c>
+      <c r="L1100" t="n">
+        <v>121742</v>
+      </c>
+      <c r="M1100" t="n">
+        <v>1840.574936169775</v>
+      </c>
+      <c r="N1100" t="n">
+        <v>1848.657846334516</v>
+      </c>
+      <c r="O1100" t="n">
+        <v>8.082910164740269</v>
+      </c>
+      <c r="P1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1100" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="1" t="n">
+        <v>1099</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>1099247</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>1704849300</v>
+      </c>
+      <c r="D1101" t="inlineStr">
+        <is>
+          <t>SA24091704849300</t>
+        </is>
+      </c>
+      <c r="E1101" t="inlineStr">
+        <is>
+          <t>2024-01-10 09:15:00</t>
+        </is>
+      </c>
+      <c r="F1101" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1101" t="n">
+        <v>1835</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>1841</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>1827</v>
+      </c>
+      <c r="J1101" t="n">
+        <v>1829</v>
+      </c>
+      <c r="K1101" t="n">
+        <v>6559</v>
+      </c>
+      <c r="L1101" t="n">
+        <v>121228</v>
+      </c>
+      <c r="M1101" t="n">
+        <v>1836.716624113184</v>
+      </c>
+      <c r="N1101" t="n">
+        <v>1845.083692455513</v>
+      </c>
+      <c r="O1101" t="n">
+        <v>8.367068342329048</v>
+      </c>
+      <c r="P1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1101" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="1" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>1125819</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>1704850200</v>
+      </c>
+      <c r="D1102" t="inlineStr">
+        <is>
+          <t>SA24091704850200</t>
+        </is>
+      </c>
+      <c r="E1102" t="inlineStr">
+        <is>
+          <t>2024-01-10 09:30:00</t>
+        </is>
+      </c>
+      <c r="F1102" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1102" t="n">
+        <v>1829</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>1835</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>1826</v>
+      </c>
+      <c r="J1102" t="n">
+        <v>1830</v>
+      </c>
+      <c r="K1102" t="n">
+        <v>5096</v>
+      </c>
+      <c r="L1102" t="n">
+        <v>121805</v>
+      </c>
+      <c r="M1102" t="n">
+        <v>1834.477749408789</v>
+      </c>
+      <c r="N1102" t="n">
+        <v>1842.341202918147</v>
+      </c>
+      <c r="O1102" t="n">
+        <v>7.863453509357441</v>
+      </c>
+      <c r="P1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1102" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="1" t="n">
+        <v>1101</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>1156479</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>1704851100</v>
+      </c>
+      <c r="D1103" t="inlineStr">
+        <is>
+          <t>SA24091704851100</t>
+        </is>
+      </c>
+      <c r="E1103" t="inlineStr">
+        <is>
+          <t>2024-01-10 09:45:00</t>
+        </is>
+      </c>
+      <c r="F1103" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1103" t="n">
+        <v>1830</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>1835</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>1824</v>
+      </c>
+      <c r="J1103" t="n">
+        <v>1830</v>
+      </c>
+      <c r="K1103" t="n">
+        <v>4146</v>
+      </c>
+      <c r="L1103" t="n">
+        <v>122509</v>
+      </c>
+      <c r="M1103" t="n">
+        <v>1832.985166272526</v>
+      </c>
+      <c r="N1103" t="n">
+        <v>1840.09734784212</v>
+      </c>
+      <c r="O1103" t="n">
+        <v>7.112181569593758</v>
+      </c>
+      <c r="P1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1103" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="1" t="n">
+        <v>1102</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>1187139</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>1704852000</v>
+      </c>
+      <c r="D1104" t="inlineStr">
+        <is>
+          <t>SA24091704852000</t>
+        </is>
+      </c>
+      <c r="E1104" t="inlineStr">
+        <is>
+          <t>2024-01-10 10:00:00</t>
+        </is>
+      </c>
+      <c r="F1104" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1104" t="n">
+        <v>1831</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>1845</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>1829</v>
+      </c>
+      <c r="J1104" t="n">
+        <v>1839</v>
+      </c>
+      <c r="K1104" t="n">
+        <v>8355</v>
+      </c>
+      <c r="L1104" t="n">
+        <v>122880</v>
+      </c>
+      <c r="M1104" t="n">
+        <v>1834.990110848351</v>
+      </c>
+      <c r="N1104" t="n">
+        <v>1839.897830052643</v>
+      </c>
+      <c r="O1104" t="n">
+        <v>4.907719204292334</v>
+      </c>
+      <c r="P1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="1" t="n">
+        <v>1103</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>1217799</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>1704852900</v>
+      </c>
+      <c r="D1105" t="inlineStr">
+        <is>
+          <t>SA24091704852900</t>
+        </is>
+      </c>
+      <c r="E1105" t="inlineStr">
+        <is>
+          <t>2024-01-10 10:15:00</t>
+        </is>
+      </c>
+      <c r="F1105" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1105" t="n">
+        <v>1838</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>1851</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>1837</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>1849</v>
+      </c>
+      <c r="K1105" t="n">
+        <v>6655</v>
+      </c>
+      <c r="L1105" t="n">
+        <v>123593</v>
+      </c>
+      <c r="M1105" t="n">
+        <v>1839.660073898901</v>
+      </c>
+      <c r="N1105" t="n">
+        <v>1841.552770043072</v>
+      </c>
+      <c r="O1105" t="n">
+        <v>1.892696144170941</v>
+      </c>
+      <c r="P1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="1" t="n">
+        <v>1104</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>1275031</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>1704854700</v>
+      </c>
+      <c r="D1106" t="inlineStr">
+        <is>
+          <t>SA24091704854700</t>
+        </is>
+      </c>
+      <c r="E1106" t="inlineStr">
+        <is>
+          <t>2024-01-10 10:45:00</t>
+        </is>
+      </c>
+      <c r="F1106" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1106" t="n">
+        <v>1850</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>1850</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>1836</v>
+      </c>
+      <c r="J1106" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K1106" t="n">
+        <v>5103</v>
+      </c>
+      <c r="L1106" t="n">
+        <v>123176</v>
+      </c>
+      <c r="M1106" t="n">
+        <v>1840.106715932601</v>
+      </c>
+      <c r="N1106" t="n">
+        <v>1841.452266398877</v>
+      </c>
+      <c r="O1106" t="n">
+        <v>1.345550466275881</v>
+      </c>
+      <c r="P1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="1" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>1307735</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>1704855600</v>
+      </c>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>SA24091704855600</t>
+        </is>
+      </c>
+      <c r="E1107" t="inlineStr">
+        <is>
+          <t>2024-01-10 11:00:00</t>
+        </is>
+      </c>
+      <c r="F1107" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1107" t="n">
+        <v>1841</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>1842</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>1837</v>
+      </c>
+      <c r="J1107" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K1107" t="n">
+        <v>1866</v>
+      </c>
+      <c r="L1107" t="n">
+        <v>124733</v>
+      </c>
+      <c r="M1107" t="n">
+        <v>1840.404477288401</v>
+      </c>
+      <c r="N1107" t="n">
+        <v>1841.370036144535</v>
+      </c>
+      <c r="O1107" t="n">
+        <v>0.9655588561345212</v>
+      </c>
+      <c r="P1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="1" t="n">
+        <v>1106</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>1319999</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>1704856500</v>
+      </c>
+      <c r="D1108" t="inlineStr">
+        <is>
+          <t>SA24091704856500</t>
+        </is>
+      </c>
+      <c r="E1108" t="inlineStr">
+        <is>
+          <t>2024-01-10 11:15:00</t>
+        </is>
+      </c>
+      <c r="F1108" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1108" t="n">
+        <v>1840</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>1841</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>1836</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>1839</v>
+      </c>
+      <c r="K1108" t="n">
+        <v>1338</v>
+      </c>
+      <c r="L1108" t="n">
+        <v>125361</v>
+      </c>
+      <c r="M1108" t="n">
+        <v>1839.936318192267</v>
+      </c>
+      <c r="N1108" t="n">
+        <v>1840.939120481893</v>
+      </c>
+      <c r="O1108" t="n">
+        <v>1.002802289625151</v>
+      </c>
+      <c r="P1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="1" t="n">
+        <v>1107</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>1344527</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>1704857400</v>
+      </c>
+      <c r="D1109" t="inlineStr">
+        <is>
+          <t>SA24091704857400</t>
+        </is>
+      </c>
+      <c r="E1109" t="inlineStr">
+        <is>
+          <t>2024-01-10 11:30:00</t>
+        </is>
+      </c>
+      <c r="F1109" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1109" t="n">
+        <v>1838</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>1839</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>1829</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>1834</v>
+      </c>
+      <c r="K1109" t="n">
+        <v>4623</v>
+      </c>
+      <c r="L1109" t="n">
+        <v>125620</v>
+      </c>
+      <c r="M1109" t="n">
+        <v>1837.957545461512</v>
+      </c>
+      <c r="N1109" t="n">
+        <v>1839.677462212458</v>
+      </c>
+      <c r="O1109" t="n">
+        <v>1.719916750945913</v>
+      </c>
+      <c r="P1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="1" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>1408913</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>1704865500</v>
+      </c>
+      <c r="D1110" t="inlineStr">
+        <is>
+          <t>SA24091704865500</t>
+        </is>
+      </c>
+      <c r="E1110" t="inlineStr">
+        <is>
+          <t>2024-01-10 13:45:00</t>
+        </is>
+      </c>
+      <c r="F1110" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1110" t="n">
+        <v>1833</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>1835</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>1827</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>1832</v>
+      </c>
+      <c r="K1110" t="n">
+        <v>2741</v>
+      </c>
+      <c r="L1110" t="n">
+        <v>126597</v>
+      </c>
+      <c r="M1110" t="n">
+        <v>1835.971696974341</v>
+      </c>
+      <c r="N1110" t="n">
+        <v>1838.281559992011</v>
+      </c>
+      <c r="O1110" t="n">
+        <v>2.309863017669613</v>
+      </c>
+      <c r="P1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="1" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>1441617</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>1704866400</v>
+      </c>
+      <c r="D1111" t="inlineStr">
+        <is>
+          <t>SA24091704866400</t>
+        </is>
+      </c>
+      <c r="E1111" t="inlineStr">
+        <is>
+          <t>2024-01-10 14:00:00</t>
+        </is>
+      </c>
+      <c r="F1111" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1111" t="n">
+        <v>1831</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>1839</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>1829</v>
+      </c>
+      <c r="J1111" t="n">
+        <v>1837</v>
+      </c>
+      <c r="K1111" t="n">
+        <v>2045</v>
+      </c>
+      <c r="L1111" t="n">
+        <v>127364</v>
+      </c>
+      <c r="M1111" t="n">
+        <v>1836.314464649561</v>
+      </c>
+      <c r="N1111" t="n">
+        <v>1838.048549084373</v>
+      </c>
+      <c r="O1111" t="n">
+        <v>1.734084434811621</v>
+      </c>
+      <c r="P1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>1472277</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>1704867300</v>
+      </c>
+      <c r="D1112" t="inlineStr">
+        <is>
+          <t>SA24091704867300</t>
+        </is>
+      </c>
+      <c r="E1112" t="inlineStr">
+        <is>
+          <t>2024-01-10 14:15:00</t>
+        </is>
+      </c>
+      <c r="F1112" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1112" t="n">
+        <v>1836</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>1838</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>1827</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>1831</v>
+      </c>
+      <c r="K1112" t="n">
+        <v>3122</v>
+      </c>
+      <c r="L1112" t="n">
+        <v>127402</v>
+      </c>
+      <c r="M1112" t="n">
+        <v>1834.542976433041</v>
+      </c>
+      <c r="N1112" t="n">
+        <v>1836.766994705396</v>
+      </c>
+      <c r="O1112" t="n">
+        <v>2.224018272355124</v>
+      </c>
+      <c r="P1112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1112" t="n">
+        <v>1861</v>
+      </c>
+      <c r="R1112" t="n">
+        <v>1831</v>
+      </c>
+      <c r="S1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1112" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="1" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>1498849</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>1704868200</v>
+      </c>
+      <c r="D1113" t="inlineStr">
+        <is>
+          <t>SA24091704868200</t>
+        </is>
+      </c>
+      <c r="E1113" t="inlineStr">
+        <is>
+          <t>2024-01-10 14:30:00</t>
+        </is>
+      </c>
+      <c r="F1113" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1113" t="n">
+        <v>1831</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>1838</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>1828</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>1829</v>
+      </c>
+      <c r="K1113" t="n">
+        <v>4036</v>
+      </c>
+      <c r="L1113" t="n">
+        <v>127827</v>
+      </c>
+      <c r="M1113" t="n">
+        <v>1832.695317622027</v>
+      </c>
+      <c r="N1113" t="n">
+        <v>1835.354813849869</v>
+      </c>
+      <c r="O1113" t="n">
+        <v>2.659496227841828</v>
+      </c>
+      <c r="P1113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1113" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="1" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>1529509</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>1704869100</v>
+      </c>
+      <c r="D1114" t="inlineStr">
+        <is>
+          <t>SA24091704869100</t>
+        </is>
+      </c>
+      <c r="E1114" t="inlineStr">
+        <is>
+          <t>2024-01-10 14:45:00</t>
+        </is>
+      </c>
+      <c r="F1114" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1114" t="n">
+        <v>1829</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>1832</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>1817</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>1819</v>
+      </c>
+      <c r="K1114" t="n">
+        <v>6423</v>
+      </c>
+      <c r="L1114" t="n">
+        <v>128013</v>
+      </c>
+      <c r="M1114" t="n">
+        <v>1828.130211748018</v>
+      </c>
+      <c r="N1114" t="n">
+        <v>1832.381211331711</v>
+      </c>
+      <c r="O1114" t="n">
+        <v>4.250999583692874</v>
+      </c>
+      <c r="P1114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1114" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="1" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>1551993</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>1704870000</v>
+      </c>
+      <c r="D1115" t="inlineStr">
+        <is>
+          <t>SA24091704870000</t>
+        </is>
+      </c>
+      <c r="E1115" t="inlineStr">
+        <is>
+          <t>2024-01-10 15:00:00</t>
+        </is>
+      </c>
+      <c r="F1115" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1115" t="n">
+        <v>1818</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>1823</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>1811</v>
+      </c>
+      <c r="J1115" t="n">
+        <v>1812</v>
+      </c>
+      <c r="K1115" t="n">
+        <v>8872</v>
+      </c>
+      <c r="L1115" t="n">
+        <v>128853</v>
+      </c>
+      <c r="M1115" t="n">
+        <v>1822.753474498679</v>
+      </c>
+      <c r="N1115" t="n">
+        <v>1828.675536544127</v>
+      </c>
+      <c r="O1115" t="n">
+        <v>5.922062045448229</v>
+      </c>
+      <c r="P1115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1115" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="1" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>2191765</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>1704892500</v>
+      </c>
+      <c r="D1116" t="inlineStr">
+        <is>
+          <t>SA24091704892500</t>
+        </is>
+      </c>
+      <c r="E1116" t="inlineStr">
+        <is>
+          <t>2024-01-10 21:15:00</t>
+        </is>
+      </c>
+      <c r="F1116" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1116" t="n">
+        <v>1810</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>1818</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>1799</v>
+      </c>
+      <c r="J1116" t="n">
+        <v>1807</v>
+      </c>
+      <c r="K1116" t="n">
+        <v>13764</v>
+      </c>
+      <c r="L1116" t="n">
+        <v>131917</v>
+      </c>
+      <c r="M1116" t="n">
+        <v>1817.502316332453</v>
+      </c>
+      <c r="N1116" t="n">
+        <v>1824.73452989974</v>
+      </c>
+      <c r="O1116" t="n">
+        <v>7.232213567287545</v>
+      </c>
+      <c r="P1116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1116" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="1" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>2193809</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>1704893400</v>
+      </c>
+      <c r="D1117" t="inlineStr">
+        <is>
+          <t>SA24091704893400</t>
+        </is>
+      </c>
+      <c r="E1117" t="inlineStr">
+        <is>
+          <t>2024-01-10 21:30:00</t>
+        </is>
+      </c>
+      <c r="F1117" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1117" t="n">
+        <v>1806</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>1808</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J1117" t="n">
+        <v>1806</v>
+      </c>
+      <c r="K1117" t="n">
+        <v>3832</v>
+      </c>
+      <c r="L1117" t="n">
+        <v>131943</v>
+      </c>
+      <c r="M1117" t="n">
+        <v>1813.668210888302</v>
+      </c>
+      <c r="N1117" t="n">
+        <v>1821.328251736151</v>
+      </c>
+      <c r="O1117" t="n">
+        <v>7.660040847848904</v>
+      </c>
+      <c r="P1117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1117" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="1" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>2222425</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>1704894300</v>
+      </c>
+      <c r="D1118" t="inlineStr">
+        <is>
+          <t>SA24091704894300</t>
+        </is>
+      </c>
+      <c r="E1118" t="inlineStr">
+        <is>
+          <t>2024-01-10 21:45:00</t>
+        </is>
+      </c>
+      <c r="F1118" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1118" t="n">
+        <v>1806</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>1820</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>1805</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>1817</v>
+      </c>
+      <c r="K1118" t="n">
+        <v>7207</v>
+      </c>
+      <c r="L1118" t="n">
+        <v>132200</v>
+      </c>
+      <c r="M1118" t="n">
+        <v>1814.778807258868</v>
+      </c>
+      <c r="N1118" t="n">
+        <v>1820.541296875032</v>
+      </c>
+      <c r="O1118" t="n">
+        <v>5.762489616164203</v>
+      </c>
+      <c r="P1118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1118" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="1" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>2251041</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>1704895200</v>
+      </c>
+      <c r="D1119" t="inlineStr">
+        <is>
+          <t>SA24091704895200</t>
+        </is>
+      </c>
+      <c r="E1119" t="inlineStr">
+        <is>
+          <t>2024-01-10 22:00:00</t>
+        </is>
+      </c>
+      <c r="F1119" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1119" t="n">
+        <v>1816</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>1821</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>1814</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>1818</v>
+      </c>
+      <c r="K1119" t="n">
+        <v>3371</v>
+      </c>
+      <c r="L1119" t="n">
+        <v>131813</v>
+      </c>
+      <c r="M1119" t="n">
+        <v>1815.852538172579</v>
+      </c>
+      <c r="N1119" t="n">
+        <v>1820.079242897754</v>
+      </c>
+      <c r="O1119" t="n">
+        <v>4.226704725174613</v>
+      </c>
+      <c r="P1119" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1119" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="1" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>2281701</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>1704896100</v>
+      </c>
+      <c r="D1120" t="inlineStr">
+        <is>
+          <t>SA24091704896100</t>
+        </is>
+      </c>
+      <c r="E1120" t="inlineStr">
+        <is>
+          <t>2024-01-10 22:15:00</t>
+        </is>
+      </c>
+      <c r="F1120" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1120" t="n">
+        <v>1818</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>1820</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>1814</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>1819</v>
+      </c>
+      <c r="K1120" t="n">
+        <v>2974</v>
+      </c>
+      <c r="L1120" t="n">
+        <v>131915</v>
+      </c>
+      <c r="M1120" t="n">
+        <v>1816.901692115053</v>
+      </c>
+      <c r="N1120" t="n">
+        <v>1819.883016916344</v>
+      </c>
+      <c r="O1120" t="n">
+        <v>2.981324801291066</v>
+      </c>
+      <c r="P1120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1120" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="1" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>2310317</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>1704897000</v>
+      </c>
+      <c r="D1121" t="inlineStr">
+        <is>
+          <t>SA24091704897000</t>
+        </is>
+      </c>
+      <c r="E1121" t="inlineStr">
+        <is>
+          <t>2024-01-10 22:30:00</t>
+        </is>
+      </c>
+      <c r="F1121" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1121" t="n">
+        <v>1819</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>1820</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>1815</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>1818</v>
+      </c>
+      <c r="K1121" t="n">
+        <v>1193</v>
+      </c>
+      <c r="L1121" t="n">
+        <v>132606</v>
+      </c>
+      <c r="M1121" t="n">
+        <v>1817.267794743369</v>
+      </c>
+      <c r="N1121" t="n">
+        <v>1819.540650204281</v>
+      </c>
+      <c r="O1121" t="n">
+        <v>2.272855460912524</v>
+      </c>
+      <c r="P1121" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1121" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="1" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>2332801</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>1704897900</v>
+      </c>
+      <c r="D1122" t="inlineStr">
+        <is>
+          <t>SA24091704897900</t>
+        </is>
+      </c>
+      <c r="E1122" t="inlineStr">
+        <is>
+          <t>2024-01-10 22:45:00</t>
+        </is>
+      </c>
+      <c r="F1122" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1122" t="n">
+        <v>1818</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>1820</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>1815</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>1817</v>
+      </c>
+      <c r="K1122" t="n">
+        <v>1647</v>
+      </c>
+      <c r="L1122" t="n">
+        <v>132692</v>
+      </c>
+      <c r="M1122" t="n">
+        <v>1817.178529828913</v>
+      </c>
+      <c r="N1122" t="n">
+        <v>1819.078713803503</v>
+      </c>
+      <c r="O1122" t="n">
+        <v>1.900183974590163</v>
+      </c>
+      <c r="P1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1122" t="n">
+        <v>48.732</v>
+      </c>
+      <c r="T1122" t="n">
+        <v>7.268</v>
+      </c>
+      <c r="U1122" t="n">
+        <v>14</v>
+      </c>
+      <c r="V1122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="1" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>2359373</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>1704898800</v>
+      </c>
+      <c r="D1123" t="inlineStr">
+        <is>
+          <t>SA24091704898800</t>
+        </is>
+      </c>
+      <c r="E1123" t="inlineStr">
+        <is>
+          <t>2024-01-10 23:00:00</t>
+        </is>
+      </c>
+      <c r="F1123" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1123" t="n">
+        <v>1817</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>1820</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>1814</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>1819</v>
+      </c>
+      <c r="K1123" t="n">
+        <v>1782</v>
+      </c>
+      <c r="L1123" t="n">
+        <v>132654</v>
+      </c>
+      <c r="M1123" t="n">
+        <v>1817.785686552609</v>
+      </c>
+      <c r="N1123" t="n">
+        <v>1819.064402202866</v>
+      </c>
+      <c r="O1123" t="n">
+        <v>1.278715650257254</v>
+      </c>
+      <c r="P1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="1" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>2439089</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>1704935700</v>
+      </c>
+      <c r="D1124" t="inlineStr">
+        <is>
+          <t>SA24091704935700</t>
+        </is>
+      </c>
+      <c r="E1124" t="inlineStr">
+        <is>
+          <t>2024-01-11 09:15:00</t>
+        </is>
+      </c>
+      <c r="F1124" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1124" t="n">
+        <v>1818</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>1824</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>1815</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>1817</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>4105</v>
+      </c>
+      <c r="L1124" t="n">
+        <v>132088</v>
+      </c>
+      <c r="M1124" t="n">
+        <v>1817.523791035072</v>
+      </c>
+      <c r="N1124" t="n">
+        <v>1818.689056347799</v>
+      </c>
+      <c r="O1124" t="n">
+        <v>1.16526531272666</v>
+      </c>
+      <c r="P1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="1" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>2469749</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>1704936600</v>
+      </c>
+      <c r="D1125" t="inlineStr">
+        <is>
+          <t>SA24091704936600</t>
+        </is>
+      </c>
+      <c r="E1125" t="inlineStr">
+        <is>
+          <t>2024-01-11 09:30:00</t>
+        </is>
+      </c>
+      <c r="F1125" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1125" t="n">
+        <v>1817</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>1820</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>1816</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>1818</v>
+      </c>
+      <c r="K1125" t="n">
+        <v>1124</v>
+      </c>
+      <c r="L1125" t="n">
+        <v>132276</v>
+      </c>
+      <c r="M1125" t="n">
+        <v>1817.682527356715</v>
+      </c>
+      <c r="N1125" t="n">
+        <v>1818.563773375472</v>
+      </c>
+      <c r="O1125" t="n">
+        <v>0.8812460187566558</v>
+      </c>
+      <c r="P1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="1" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>2500409</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>1704937500</v>
+      </c>
+      <c r="D1126" t="inlineStr">
+        <is>
+          <t>SA24091704937500</t>
+        </is>
+      </c>
+      <c r="E1126" t="inlineStr">
+        <is>
+          <t>2024-01-11 09:45:00</t>
+        </is>
+      </c>
+      <c r="F1126" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1126" t="n">
+        <v>1818</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>1828</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>1818</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>1821</v>
+      </c>
+      <c r="K1126" t="n">
+        <v>4334</v>
+      </c>
+      <c r="L1126" t="n">
+        <v>132884</v>
+      </c>
+      <c r="M1126" t="n">
+        <v>1818.788351571143</v>
+      </c>
+      <c r="N1126" t="n">
+        <v>1819.006723670841</v>
+      </c>
+      <c r="O1126" t="n">
+        <v>0.2183720996970351</v>
+      </c>
+      <c r="P1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="1" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>2529025</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>1704938400</v>
+      </c>
+      <c r="D1127" t="inlineStr">
+        <is>
+          <t>SA24091704938400</t>
+        </is>
+      </c>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>2024-01-11 10:00:00</t>
+        </is>
+      </c>
+      <c r="F1127" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1127" t="n">
+        <v>1821</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>1824</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>1809</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>1811</v>
+      </c>
+      <c r="K1127" t="n">
+        <v>4727</v>
+      </c>
+      <c r="L1127" t="n">
+        <v>132675</v>
+      </c>
+      <c r="M1127" t="n">
+        <v>1816.192234380762</v>
+      </c>
+      <c r="N1127" t="n">
+        <v>1817.550955730688</v>
+      </c>
+      <c r="O1127" t="n">
+        <v>1.35872134992519</v>
+      </c>
+      <c r="P1127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1127" t="n">
+        <v>1841</v>
+      </c>
+      <c r="R1127" t="n">
+        <v>1811</v>
+      </c>
+      <c r="S1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1127" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="1" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>2559685</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>1704939300</v>
+      </c>
+      <c r="D1128" t="inlineStr">
+        <is>
+          <t>SA24091704939300</t>
+        </is>
+      </c>
+      <c r="E1128" t="inlineStr">
+        <is>
+          <t>2024-01-11 10:15:00</t>
+        </is>
+      </c>
+      <c r="F1128" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1128" t="n">
+        <v>1811</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>1814</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>1807</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>1814</v>
+      </c>
+      <c r="K1128" t="n">
+        <v>4222</v>
+      </c>
+      <c r="L1128" t="n">
+        <v>133903</v>
+      </c>
+      <c r="M1128" t="n">
+        <v>1815.461489587175</v>
+      </c>
+      <c r="N1128" t="n">
+        <v>1816.905327416017</v>
+      </c>
+      <c r="O1128" t="n">
+        <v>1.443837828841879</v>
+      </c>
+      <c r="P1128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1128" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="1" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>2618961</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>1704941100</v>
+      </c>
+      <c r="D1129" t="inlineStr">
+        <is>
+          <t>SA24091704941100</t>
+        </is>
+      </c>
+      <c r="E1129" t="inlineStr">
+        <is>
+          <t>2024-01-11 10:45:00</t>
+        </is>
+      </c>
+      <c r="F1129" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1129" t="n">
+        <v>1813</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>1815</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>1809</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>1809</v>
+      </c>
+      <c r="K1129" t="n">
+        <v>1492</v>
+      </c>
+      <c r="L1129" t="n">
+        <v>134571</v>
+      </c>
+      <c r="M1129" t="n">
+        <v>1813.307659724783</v>
+      </c>
+      <c r="N1129" t="n">
+        <v>1815.467995158559</v>
+      </c>
+      <c r="O1129" t="n">
+        <v>2.160335433775799</v>
+      </c>
+      <c r="P1129" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1129" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="1" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>2649621</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>1704942000</v>
+      </c>
+      <c r="D1130" t="inlineStr">
+        <is>
+          <t>SA24091704942000</t>
+        </is>
+      </c>
+      <c r="E1130" t="inlineStr">
+        <is>
+          <t>2024-01-11 11:00:00</t>
+        </is>
+      </c>
+      <c r="F1130" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1130" t="n">
+        <v>1809</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>1815</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>1809</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>1815</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>1376</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>134830</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>1813.871773149856</v>
+      </c>
+      <c r="N1130" t="n">
+        <v>1815.38290512973</v>
+      </c>
+      <c r="O1130" t="n">
+        <v>1.511131979874563</v>
+      </c>
+      <c r="P1130" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1130" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="1" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>2678237</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>1704942900</v>
+      </c>
+      <c r="D1131" t="inlineStr">
+        <is>
+          <t>SA24091704942900</t>
+        </is>
+      </c>
+      <c r="E1131" t="inlineStr">
+        <is>
+          <t>2024-01-11 11:15:00</t>
+        </is>
+      </c>
+      <c r="F1131" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1131" t="n">
+        <v>1815</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>1817</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>1811</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>1816</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>2480</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>135014</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>1814.581182099904</v>
+      </c>
+      <c r="N1131" t="n">
+        <v>1815.495104197052</v>
+      </c>
+      <c r="O1131" t="n">
+        <v>0.9139220971480881</v>
+      </c>
+      <c r="P1131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1131" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="1" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>2710941</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>1704943800</v>
+      </c>
+      <c r="D1132" t="inlineStr">
+        <is>
+          <t>SA24091704943800</t>
+        </is>
+      </c>
+      <c r="E1132" t="inlineStr">
+        <is>
+          <t>2024-01-11 11:30:00</t>
+        </is>
+      </c>
+      <c r="F1132" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1132" t="n">
+        <v>1816</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>1823</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>1816</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>1817</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>2616</v>
+      </c>
+      <c r="L1132" t="n">
+        <v>134899</v>
+      </c>
+      <c r="M1132" t="n">
+        <v>1815.387454733269</v>
+      </c>
+      <c r="N1132" t="n">
+        <v>1815.76872161577</v>
+      </c>
+      <c r="O1132" t="n">
+        <v>0.3812668825003129</v>
+      </c>
+      <c r="P1132" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1132" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="1" t="n">
+        <v>1131</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>2782481</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>1704951900</v>
+      </c>
+      <c r="D1133" t="inlineStr">
+        <is>
+          <t>SA24091704951900</t>
+        </is>
+      </c>
+      <c r="E1133" t="inlineStr">
+        <is>
+          <t>2024-01-11 13:45:00</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1133" t="n">
+        <v>1821</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>1828</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>1819</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>1825</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L1133" t="n">
+        <v>135126</v>
+      </c>
+      <c r="M1133" t="n">
+        <v>1818.591636488846</v>
+      </c>
+      <c r="N1133" t="n">
+        <v>1817.447135867448</v>
+      </c>
+      <c r="O1133" t="n">
+        <v>1.144500621398493</v>
+      </c>
+      <c r="P1133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="1" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>2809053</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>1704952800</v>
+      </c>
+      <c r="D1134" t="inlineStr">
+        <is>
+          <t>SA24091704952800</t>
+        </is>
+      </c>
+      <c r="E1134" t="inlineStr">
+        <is>
+          <t>2024-01-11 14:00:00</t>
+        </is>
+      </c>
+      <c r="F1134" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1134" t="n">
+        <v>1825</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>1828</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>1820</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>1824</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>1831</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>135523</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>1820.394424325898</v>
+      </c>
+      <c r="N1134" t="n">
+        <v>1818.63856570973</v>
+      </c>
+      <c r="O1134" t="n">
+        <v>1.75585861616787</v>
+      </c>
+      <c r="P1134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="1" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>2835625</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>1704953700</v>
+      </c>
+      <c r="D1135" t="inlineStr">
+        <is>
+          <t>SA24091704953700</t>
+        </is>
+      </c>
+      <c r="E1135" t="inlineStr">
+        <is>
+          <t>2024-01-11 14:15:00</t>
+        </is>
+      </c>
+      <c r="F1135" t="inlineStr">
+        <is>
+          <t>SA2409</t>
+        </is>
+      </c>
+      <c r="G1135" t="n">
+        <v>1824</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>1824</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>1817</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>1817</v>
+      </c>
+      <c r="K1135" t="n">
+        <v>1055</v>
+      </c>
+      <c r="L1135" t="n">
+        <v>135759</v>
+      </c>
+      <c r="M1135" t="n">
+        <v>1819.262949550598</v>
+      </c>
+      <c r="N1135" t="n">
+        <v>1818.340644671597</v>
+      </c>
+      <c r="O1135" t="n">
+        <v>0.9223048790013308</v>
+      </c>
+      <c r="P1135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1135" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
